--- a/data/lit_review_data_bjoern.xlsx
+++ b/data/lit_review_data_bjoern.xlsx
@@ -145,12 +145,6 @@
     <comment authorId="0" ref="AC100">
       <text>
         <t xml:space="preserve">"conditional" standard error, but I would count it as such
-	-Bjoern</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="V70">
-      <text>
-        <t xml:space="preserve">6 test statistics. They count this as part of their conditions
 	-Bjoern</t>
       </text>
     </comment>
@@ -501,7 +495,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="428">
   <si>
     <t>year</t>
   </si>
@@ -1792,10 +1786,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
     <numFmt numFmtId="165" formatCode="d-m"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1843,6 +1837,11 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1864,7 +1863,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1872,12 +1871,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1897,7 +1898,7 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1909,6 +1910,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2323,7 +2325,7 @@
       <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2337,7 +2339,7 @@
       <c r="C2" s="1">
         <v>1.0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -2395,7 +2397,7 @@
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
       <c r="BA2" s="1"/>
-      <c r="BB2" s="1"/>
+      <c r="BB2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2">
@@ -2407,7 +2409,7 @@
       <c r="C3" s="1">
         <v>1.0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -2545,7 +2547,7 @@
       <c r="BA3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BB3" s="5">
+      <c r="BB3" s="3">
         <v>45083.0</v>
       </c>
     </row>
@@ -2559,7 +2561,7 @@
       <c r="C4" s="1">
         <v>1.0</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -2610,7 +2612,7 @@
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
-      <c r="BB4" s="1"/>
+      <c r="BB4" s="3"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2">
@@ -2622,7 +2624,7 @@
       <c r="C5" s="1">
         <v>1.0</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -2766,7 +2768,7 @@
       <c r="BA5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BB5" s="5">
+      <c r="BB5" s="3">
         <v>45083.0</v>
       </c>
     </row>
@@ -2780,7 +2782,7 @@
       <c r="C6" s="1">
         <v>1.0</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -2838,7 +2840,7 @@
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
       <c r="BA6" s="1"/>
-      <c r="BB6" s="1"/>
+      <c r="BB6" s="3"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2">
@@ -2850,7 +2852,7 @@
       <c r="C7" s="1">
         <v>1.0</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -2992,7 +2994,7 @@
       <c r="BA7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BB7" s="5">
+      <c r="BB7" s="3">
         <v>45083.0</v>
       </c>
     </row>
@@ -3006,7 +3008,7 @@
       <c r="C8" s="1">
         <v>1.0</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -3145,7 +3147,7 @@
       <c r="BA8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BB8" s="5">
+      <c r="BB8" s="3">
         <v>45084.0</v>
       </c>
     </row>
@@ -3159,7 +3161,7 @@
       <c r="C9" s="1">
         <v>1.0</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3303,7 +3305,7 @@
       <c r="BA9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BB9" s="5">
+      <c r="BB9" s="3">
         <v>45084.0</v>
       </c>
     </row>
@@ -3317,7 +3319,7 @@
       <c r="C10" s="1">
         <v>3.0</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>111</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -3457,7 +3459,7 @@
       <c r="BA10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BB10" s="7">
+      <c r="BB10" s="3">
         <v>45090.0</v>
       </c>
     </row>
@@ -3471,7 +3473,7 @@
       <c r="C11" s="1">
         <v>3.0</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>120</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -3613,7 +3615,7 @@
       <c r="BA11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BB11" s="7">
+      <c r="BB11" s="3">
         <v>45090.0</v>
       </c>
     </row>
@@ -3627,7 +3629,7 @@
       <c r="C12" s="1">
         <v>3.0</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>128</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3769,7 +3771,7 @@
       <c r="BA12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BB12" s="7">
+      <c r="BB12" s="3">
         <v>45090.0</v>
       </c>
     </row>
@@ -3783,7 +3785,7 @@
       <c r="C13" s="1">
         <v>3.0</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -3933,7 +3935,7 @@
       <c r="BA13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BB13" s="7">
+      <c r="BB13" s="3">
         <v>45103.0</v>
       </c>
     </row>
@@ -3947,7 +3949,7 @@
       <c r="C14" s="1">
         <v>3.0</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -4005,7 +4007,7 @@
       <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
       <c r="BA14" s="1"/>
-      <c r="BB14" s="1"/>
+      <c r="BB14" s="3"/>
     </row>
     <row r="15" ht="15.0" customHeight="1">
       <c r="A15" s="2">
@@ -4017,7 +4019,7 @@
       <c r="C15" s="1">
         <v>3.0</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>145</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -4075,7 +4077,7 @@
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1"/>
-      <c r="BB15" s="1"/>
+      <c r="BB15" s="3"/>
     </row>
     <row r="16" ht="15.0" customHeight="1">
       <c r="A16" s="2">
@@ -4087,7 +4089,7 @@
       <c r="C16" s="1">
         <v>3.0</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -4145,7 +4147,7 @@
       <c r="AY16" s="1"/>
       <c r="AZ16" s="1"/>
       <c r="BA16" s="1"/>
-      <c r="BB16" s="1"/>
+      <c r="BB16" s="3"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2">
@@ -4157,7 +4159,7 @@
       <c r="C17" s="1">
         <v>3.0</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -4215,7 +4217,7 @@
       <c r="AY17" s="1"/>
       <c r="AZ17" s="1"/>
       <c r="BA17" s="1"/>
-      <c r="BB17" s="1"/>
+      <c r="BB17" s="3"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2">
@@ -4227,7 +4229,7 @@
       <c r="C18" s="1">
         <v>6.0</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -4371,7 +4373,7 @@
       <c r="BA18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BB18" s="7">
+      <c r="BB18" s="3">
         <v>45101.0</v>
       </c>
     </row>
@@ -4385,7 +4387,7 @@
       <c r="C19" s="1">
         <v>6.0</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>156</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -4407,7 +4409,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="8"/>
+      <c r="R19" s="7"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -4443,7 +4445,7 @@
       <c r="AY19" s="1"/>
       <c r="AZ19" s="1"/>
       <c r="BA19" s="1"/>
-      <c r="BB19" s="1"/>
+      <c r="BB19" s="3"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2">
@@ -4455,7 +4457,7 @@
       <c r="C20" s="1">
         <v>6.0</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>157</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -4595,7 +4597,7 @@
       <c r="BA20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BB20" s="7">
+      <c r="BB20" s="3">
         <v>45101.0</v>
       </c>
     </row>
@@ -4609,7 +4611,7 @@
       <c r="C21" s="1">
         <v>6.0</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>163</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -4749,7 +4751,7 @@
       <c r="BA21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BB21" s="7">
+      <c r="BB21" s="3">
         <v>45103.0</v>
       </c>
     </row>
@@ -4763,7 +4765,7 @@
       <c r="C22" s="1">
         <v>6.0</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>169</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -4903,7 +4905,7 @@
       <c r="BA22" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BB22" s="7">
+      <c r="BB22" s="3">
         <v>45103.0</v>
       </c>
     </row>
@@ -4917,7 +4919,7 @@
       <c r="C23" s="1">
         <v>6.0</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>176</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -4975,7 +4977,7 @@
       <c r="AY23" s="1"/>
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1"/>
-      <c r="BB23" s="1"/>
+      <c r="BB23" s="3"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2">
@@ -4987,7 +4989,7 @@
       <c r="C24" s="1">
         <v>6.0</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="5" t="s">
         <v>177</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -5047,7 +5049,7 @@
         <v>178</v>
       </c>
       <c r="BA24" s="1"/>
-      <c r="BB24" s="1"/>
+      <c r="BB24" s="3"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2">
@@ -5059,7 +5061,7 @@
       <c r="C25" s="1">
         <v>6.0</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="5" t="s">
         <v>179</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -5203,7 +5205,7 @@
       <c r="BA25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BB25" s="7">
+      <c r="BB25" s="3">
         <v>45103.0</v>
       </c>
     </row>
@@ -5217,7 +5219,7 @@
       <c r="C26" s="1">
         <v>6.0</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>188</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -5277,7 +5279,7 @@
         <v>178</v>
       </c>
       <c r="BA26" s="1"/>
-      <c r="BB26" s="1"/>
+      <c r="BB26" s="3"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2">
@@ -5289,7 +5291,7 @@
       <c r="C27" s="1">
         <v>2.0</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>189</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -5347,7 +5349,7 @@
       <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
-      <c r="BB27" s="1"/>
+      <c r="BB27" s="3"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2">
@@ -5359,7 +5361,7 @@
       <c r="C28" s="1">
         <v>2.0</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>191</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -5417,7 +5419,7 @@
         <v>192</v>
       </c>
       <c r="BA28" s="1"/>
-      <c r="BB28" s="1"/>
+      <c r="BB28" s="3"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2">
@@ -5429,7 +5431,7 @@
       <c r="C29" s="1">
         <v>2.0</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>193</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -5571,7 +5573,7 @@
       <c r="BA29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BB29" s="7">
+      <c r="BB29" s="3">
         <v>45103.0</v>
       </c>
     </row>
@@ -5585,7 +5587,7 @@
       <c r="C30" s="1">
         <v>2.0</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="5" t="s">
         <v>200</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -5643,7 +5645,7 @@
       <c r="AY30" s="1"/>
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1"/>
-      <c r="BB30" s="1"/>
+      <c r="BB30" s="3"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2">
@@ -5655,7 +5657,7 @@
       <c r="C31" s="1">
         <v>2.0</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>201</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -5713,7 +5715,7 @@
       <c r="AY31" s="1"/>
       <c r="AZ31" s="1"/>
       <c r="BA31" s="1"/>
-      <c r="BB31" s="1"/>
+      <c r="BB31" s="3"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2">
@@ -5725,7 +5727,7 @@
       <c r="C32" s="1">
         <v>2.0</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="5" t="s">
         <v>202</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -5783,7 +5785,7 @@
       <c r="AY32" s="1"/>
       <c r="AZ32" s="1"/>
       <c r="BA32" s="1"/>
-      <c r="BB32" s="1"/>
+      <c r="BB32" s="3"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2">
@@ -5795,7 +5797,7 @@
       <c r="C33" s="1">
         <v>2.0</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="5" t="s">
         <v>203</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -5853,7 +5855,7 @@
       <c r="AY33" s="1"/>
       <c r="AZ33" s="1"/>
       <c r="BA33" s="1"/>
-      <c r="BB33" s="1"/>
+      <c r="BB33" s="3"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2">
@@ -5865,7 +5867,7 @@
       <c r="C34" s="1">
         <v>2.0</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="5" t="s">
         <v>204</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -5923,7 +5925,7 @@
       <c r="AY34" s="1"/>
       <c r="AZ34" s="1"/>
       <c r="BA34" s="1"/>
-      <c r="BB34" s="1"/>
+      <c r="BB34" s="3"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2">
@@ -5935,7 +5937,7 @@
       <c r="C35" s="1">
         <v>2.0</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="5" t="s">
         <v>205</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -5993,7 +5995,7 @@
       <c r="AY35" s="1"/>
       <c r="AZ35" s="1"/>
       <c r="BA35" s="1"/>
-      <c r="BB35" s="1"/>
+      <c r="BB35" s="3"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2">
@@ -6005,7 +6007,7 @@
       <c r="C36" s="1">
         <v>2.0</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="5" t="s">
         <v>206</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -6063,7 +6065,7 @@
       <c r="AY36" s="1"/>
       <c r="AZ36" s="1"/>
       <c r="BA36" s="1"/>
-      <c r="BB36" s="1"/>
+      <c r="BB36" s="3"/>
     </row>
     <row r="37" ht="15.0" customHeight="1">
       <c r="A37" s="2">
@@ -6075,7 +6077,7 @@
       <c r="C37" s="1">
         <v>2.0</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="5" t="s">
         <v>207</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -6133,7 +6135,7 @@
       <c r="AY37" s="1"/>
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
-      <c r="BB37" s="1"/>
+      <c r="BB37" s="3"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2">
@@ -6145,7 +6147,7 @@
       <c r="C38" s="1">
         <v>2.0</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="5" t="s">
         <v>208</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -6203,7 +6205,7 @@
       <c r="AY38" s="1"/>
       <c r="AZ38" s="1"/>
       <c r="BA38" s="1"/>
-      <c r="BB38" s="1"/>
+      <c r="BB38" s="3"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2">
@@ -6215,7 +6217,7 @@
       <c r="C39" s="1">
         <v>2.0</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="5" t="s">
         <v>209</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -6273,7 +6275,7 @@
       <c r="AY39" s="1"/>
       <c r="AZ39" s="1"/>
       <c r="BA39" s="1"/>
-      <c r="BB39" s="1"/>
+      <c r="BB39" s="3"/>
     </row>
     <row r="40" ht="15.0" customHeight="1">
       <c r="A40" s="2">
@@ -6285,7 +6287,7 @@
       <c r="C40" s="1">
         <v>2.0</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="5" t="s">
         <v>210</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -6343,7 +6345,7 @@
       <c r="AY40" s="1"/>
       <c r="AZ40" s="1"/>
       <c r="BA40" s="1"/>
-      <c r="BB40" s="1"/>
+      <c r="BB40" s="3"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2">
@@ -6355,7 +6357,7 @@
       <c r="C41" s="1">
         <v>2.0</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="5" t="s">
         <v>211</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -6413,7 +6415,7 @@
       <c r="AY41" s="1"/>
       <c r="AZ41" s="1"/>
       <c r="BA41" s="1"/>
-      <c r="BB41" s="1"/>
+      <c r="BB41" s="3"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2">
@@ -6425,7 +6427,7 @@
       <c r="C42" s="1">
         <v>2.0</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="5" t="s">
         <v>212</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -6571,7 +6573,9 @@
       <c r="BA42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BB42" s="1"/>
+      <c r="BB42" s="8">
+        <v>45099.0</v>
+      </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2">
@@ -6583,7 +6587,7 @@
       <c r="C43" s="1">
         <v>2.0</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="5" t="s">
         <v>221</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -6641,7 +6645,7 @@
       <c r="AY43" s="1"/>
       <c r="AZ43" s="1"/>
       <c r="BA43" s="1"/>
-      <c r="BB43" s="1"/>
+      <c r="BB43" s="3"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2">
@@ -6653,7 +6657,7 @@
       <c r="C44" s="1">
         <v>2.0</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="5" t="s">
         <v>222</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -6711,7 +6715,7 @@
       <c r="AY44" s="1"/>
       <c r="AZ44" s="1"/>
       <c r="BA44" s="1"/>
-      <c r="BB44" s="1"/>
+      <c r="BB44" s="3"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2">
@@ -6723,7 +6727,7 @@
       <c r="C45" s="1">
         <v>2.0</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="5" t="s">
         <v>223</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -6781,7 +6785,7 @@
       <c r="AY45" s="1"/>
       <c r="AZ45" s="1"/>
       <c r="BA45" s="1"/>
-      <c r="BB45" s="1"/>
+      <c r="BB45" s="3"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2">
@@ -6793,7 +6797,7 @@
       <c r="C46" s="1">
         <v>2.0</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="5" t="s">
         <v>224</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -6851,7 +6855,7 @@
       <c r="AY46" s="1"/>
       <c r="AZ46" s="1"/>
       <c r="BA46" s="1"/>
-      <c r="BB46" s="1"/>
+      <c r="BB46" s="3"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2">
@@ -6863,7 +6867,7 @@
       <c r="C47" s="1">
         <v>2.0</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="5" t="s">
         <v>225</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -6921,7 +6925,7 @@
       <c r="AY47" s="1"/>
       <c r="AZ47" s="1"/>
       <c r="BA47" s="1"/>
-      <c r="BB47" s="1"/>
+      <c r="BB47" s="3"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2">
@@ -6933,7 +6937,7 @@
       <c r="C48" s="1">
         <v>2.0</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="5" t="s">
         <v>226</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -6991,7 +6995,7 @@
       <c r="AY48" s="1"/>
       <c r="AZ48" s="1"/>
       <c r="BA48" s="1"/>
-      <c r="BB48" s="1"/>
+      <c r="BB48" s="3"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2">
@@ -7003,7 +7007,7 @@
       <c r="C49" s="1">
         <v>2.0</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="5" t="s">
         <v>227</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -7061,7 +7065,7 @@
       <c r="AY49" s="1"/>
       <c r="AZ49" s="1"/>
       <c r="BA49" s="1"/>
-      <c r="BB49" s="1"/>
+      <c r="BB49" s="3"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2">
@@ -7073,7 +7077,7 @@
       <c r="C50" s="1">
         <v>2.0</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="5" t="s">
         <v>228</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -7217,7 +7221,9 @@
       <c r="BA50" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BB50" s="1"/>
+      <c r="BB50" s="8">
+        <v>45099.0</v>
+      </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2">
@@ -7229,7 +7235,7 @@
       <c r="C51" s="1">
         <v>2.0</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -7287,7 +7293,7 @@
       <c r="AY51" s="1"/>
       <c r="AZ51" s="1"/>
       <c r="BA51" s="1"/>
-      <c r="BB51" s="1"/>
+      <c r="BB51" s="3"/>
     </row>
     <row r="52" ht="15.0" customHeight="1">
       <c r="A52" s="2">
@@ -7299,7 +7305,7 @@
       <c r="C52" s="1">
         <v>2.0</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="5" t="s">
         <v>237</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -7357,7 +7363,7 @@
       <c r="AY52" s="1"/>
       <c r="AZ52" s="1"/>
       <c r="BA52" s="1"/>
-      <c r="BB52" s="1"/>
+      <c r="BB52" s="3"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2">
@@ -7369,7 +7375,7 @@
       <c r="C53" s="1">
         <v>2.0</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="5" t="s">
         <v>238</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -7427,7 +7433,7 @@
       <c r="AY53" s="1"/>
       <c r="AZ53" s="1"/>
       <c r="BA53" s="1"/>
-      <c r="BB53" s="1"/>
+      <c r="BB53" s="3"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2">
@@ -7439,7 +7445,7 @@
       <c r="C54" s="1">
         <v>2.0</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="5" t="s">
         <v>239</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -7497,7 +7503,7 @@
       <c r="AY54" s="1"/>
       <c r="AZ54" s="1"/>
       <c r="BA54" s="1"/>
-      <c r="BB54" s="1"/>
+      <c r="BB54" s="3"/>
     </row>
     <row r="55" ht="15.0" customHeight="1">
       <c r="A55" s="2">
@@ -7509,7 +7515,7 @@
       <c r="C55" s="1">
         <v>2.0</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="5" t="s">
         <v>240</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -7651,7 +7657,7 @@
       <c r="BA55" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BB55" s="7">
+      <c r="BB55" s="3">
         <v>45100.0</v>
       </c>
     </row>
@@ -7665,7 +7671,7 @@
       <c r="C56" s="1">
         <v>2.0</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="5" t="s">
         <v>247</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -7723,7 +7729,7 @@
       <c r="AY56" s="1"/>
       <c r="AZ56" s="1"/>
       <c r="BA56" s="1"/>
-      <c r="BB56" s="1"/>
+      <c r="BB56" s="3"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2">
@@ -7735,7 +7741,7 @@
       <c r="C57" s="1">
         <v>5.0</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="5" t="s">
         <v>248</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -7796,7 +7802,9 @@
       <c r="X57" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y57" s="1"/>
+      <c r="Y57" s="2">
+        <v>2.0</v>
+      </c>
       <c r="Z57" s="1" t="s">
         <v>66</v>
       </c>
@@ -7879,7 +7887,7 @@
       <c r="BA57" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BB57" s="7">
+      <c r="BB57" s="3">
         <v>45100.0</v>
       </c>
     </row>
@@ -7951,7 +7959,7 @@
       <c r="AY58" s="1"/>
       <c r="AZ58" s="1"/>
       <c r="BA58" s="1"/>
-      <c r="BB58" s="1"/>
+      <c r="BB58" s="3"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2">
@@ -7963,7 +7971,7 @@
       <c r="C59" s="1">
         <v>5.0</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="5" t="s">
         <v>259</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -8024,7 +8032,9 @@
       <c r="X59" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y59" s="1"/>
+      <c r="Y59" s="2">
+        <v>3.0</v>
+      </c>
       <c r="Z59" s="1" t="s">
         <v>98</v>
       </c>
@@ -8082,7 +8092,7 @@
       <c r="AT59" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AU59" s="4" t="s">
+      <c r="AU59" s="5" t="s">
         <v>263</v>
       </c>
       <c r="AV59" s="1" t="s">
@@ -8103,7 +8113,7 @@
       <c r="BA59" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BB59" s="7">
+      <c r="BB59" s="3">
         <v>45101.0</v>
       </c>
     </row>
@@ -8175,7 +8185,7 @@
       <c r="AY60" s="1"/>
       <c r="AZ60" s="1"/>
       <c r="BA60" s="1"/>
-      <c r="BB60" s="1"/>
+      <c r="BB60" s="3"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2">
@@ -8247,7 +8257,6 @@
         <v>268</v>
       </c>
       <c r="BA61" s="1"/>
-      <c r="BB61" s="1"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2">
@@ -8317,7 +8326,7 @@
       <c r="AY62" s="1"/>
       <c r="AZ62" s="1"/>
       <c r="BA62" s="1"/>
-      <c r="BB62" s="1"/>
+      <c r="BB62" s="3"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2">
@@ -8389,7 +8398,6 @@
         <v>268</v>
       </c>
       <c r="BA63" s="1"/>
-      <c r="BB63" s="1"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2">
@@ -8459,7 +8467,7 @@
       <c r="AY64" s="1"/>
       <c r="AZ64" s="1"/>
       <c r="BA64" s="1"/>
-      <c r="BB64" s="1"/>
+      <c r="BB64" s="3"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2">
@@ -8529,7 +8537,7 @@
       <c r="AY65" s="1"/>
       <c r="AZ65" s="1"/>
       <c r="BA65" s="1"/>
-      <c r="BB65" s="1"/>
+      <c r="BB65" s="3"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2">
@@ -8599,7 +8607,7 @@
       <c r="AY66" s="1"/>
       <c r="AZ66" s="1"/>
       <c r="BA66" s="1"/>
-      <c r="BB66" s="1"/>
+      <c r="BB66" s="3"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2">
@@ -8669,7 +8677,7 @@
       <c r="AY67" s="1"/>
       <c r="AZ67" s="1"/>
       <c r="BA67" s="1"/>
-      <c r="BB67" s="1"/>
+      <c r="BB67" s="3"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2">
@@ -8739,7 +8747,7 @@
       <c r="AY68" s="1"/>
       <c r="AZ68" s="1"/>
       <c r="BA68" s="1"/>
-      <c r="BB68" s="1"/>
+      <c r="BB68" s="3"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2">
@@ -8809,7 +8817,7 @@
       <c r="AY69" s="1"/>
       <c r="AZ69" s="1"/>
       <c r="BA69" s="1"/>
-      <c r="BB69" s="1"/>
+      <c r="BB69" s="3"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2">
@@ -8821,7 +8829,7 @@
       <c r="C70" s="1">
         <v>5.0</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="5" t="s">
         <v>277</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -8873,8 +8881,8 @@
       <c r="U70" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="V70" s="1">
-        <v>6.0</v>
+      <c r="V70" s="2">
+        <v>1.0</v>
       </c>
       <c r="W70" s="1" t="s">
         <v>56</v>
@@ -8882,7 +8890,9 @@
       <c r="X70" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y70" s="1"/>
+      <c r="Y70" s="2">
+        <v>6.0</v>
+      </c>
       <c r="Z70" s="1" t="s">
         <v>98</v>
       </c>
@@ -8947,7 +8957,9 @@
       <c r="AW70" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="AX70" s="1"/>
+      <c r="AX70" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="AY70" s="1" t="s">
         <v>280</v>
       </c>
@@ -8957,7 +8969,7 @@
       <c r="BA70" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BB70" s="7">
+      <c r="BB70" s="3">
         <v>45101.0</v>
       </c>
     </row>
@@ -8971,7 +8983,7 @@
       <c r="C71" s="1">
         <v>5.0</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="5" t="s">
         <v>282</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -9031,7 +9043,7 @@
         <v>283</v>
       </c>
       <c r="BA71" s="1"/>
-      <c r="BB71" s="1"/>
+      <c r="BB71" s="3"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2">
@@ -9101,7 +9113,7 @@
       <c r="AY72" s="1"/>
       <c r="AZ72" s="1"/>
       <c r="BA72" s="1"/>
-      <c r="BB72" s="1"/>
+      <c r="BB72" s="3"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2">
@@ -9171,7 +9183,7 @@
       <c r="AY73" s="1"/>
       <c r="AZ73" s="1"/>
       <c r="BA73" s="1"/>
-      <c r="BB73" s="1"/>
+      <c r="BB73" s="3"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2">
@@ -9241,7 +9253,7 @@
       <c r="AY74" s="1"/>
       <c r="AZ74" s="1"/>
       <c r="BA74" s="1"/>
-      <c r="BB74" s="1"/>
+      <c r="BB74" s="3"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2">
@@ -9311,7 +9323,7 @@
       <c r="AY75" s="1"/>
       <c r="AZ75" s="1"/>
       <c r="BA75" s="1"/>
-      <c r="BB75" s="1"/>
+      <c r="BB75" s="3"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2">
@@ -9381,7 +9393,7 @@
       <c r="AY76" s="1"/>
       <c r="AZ76" s="1"/>
       <c r="BA76" s="1"/>
-      <c r="BB76" s="1"/>
+      <c r="BB76" s="3"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2">
@@ -9451,7 +9463,7 @@
       <c r="AY77" s="1"/>
       <c r="AZ77" s="1"/>
       <c r="BA77" s="1"/>
-      <c r="BB77" s="1"/>
+      <c r="BB77" s="3"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2">
@@ -9521,7 +9533,7 @@
       <c r="AY78" s="1"/>
       <c r="AZ78" s="1"/>
       <c r="BA78" s="1"/>
-      <c r="BB78" s="1"/>
+      <c r="BB78" s="3"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2">
@@ -9591,7 +9603,7 @@
       <c r="AY79" s="1"/>
       <c r="AZ79" s="1"/>
       <c r="BA79" s="1"/>
-      <c r="BB79" s="1"/>
+      <c r="BB79" s="3"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2">
@@ -9661,7 +9673,7 @@
       <c r="AY80" s="1"/>
       <c r="AZ80" s="1"/>
       <c r="BA80" s="1"/>
-      <c r="BB80" s="1"/>
+      <c r="BB80" s="3"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2">
@@ -9731,7 +9743,7 @@
       <c r="AY81" s="1"/>
       <c r="AZ81" s="1"/>
       <c r="BA81" s="1"/>
-      <c r="BB81" s="1"/>
+      <c r="BB81" s="3"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2">
@@ -9801,7 +9813,7 @@
       <c r="AY82" s="1"/>
       <c r="AZ82" s="1"/>
       <c r="BA82" s="1"/>
-      <c r="BB82" s="1"/>
+      <c r="BB82" s="3"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2">
@@ -9813,7 +9825,7 @@
       <c r="C83" s="1">
         <v>5.0</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="5" t="s">
         <v>295</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -9959,7 +9971,7 @@
       <c r="BA83" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BB83" s="7">
+      <c r="BB83" s="3">
         <v>45101.0</v>
       </c>
     </row>
@@ -9973,7 +9985,7 @@
       <c r="C84" s="1">
         <v>5.0</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="5" t="s">
         <v>305</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -10109,7 +10121,7 @@
       <c r="BA84" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BB84" s="7">
+      <c r="BB84" s="3">
         <v>45101.0</v>
       </c>
     </row>
@@ -10181,7 +10193,7 @@
       <c r="AY85" s="1"/>
       <c r="AZ85" s="1"/>
       <c r="BA85" s="1"/>
-      <c r="BB85" s="1"/>
+      <c r="BB85" s="3"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2">
@@ -10251,7 +10263,7 @@
       <c r="AY86" s="1"/>
       <c r="AZ86" s="1"/>
       <c r="BA86" s="1"/>
-      <c r="BB86" s="1"/>
+      <c r="BB86" s="3"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2">
@@ -10263,7 +10275,7 @@
       <c r="C87" s="1">
         <v>4.0</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="5" t="s">
         <v>312</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -10321,7 +10333,7 @@
       <c r="AY87" s="1"/>
       <c r="AZ87" s="1"/>
       <c r="BA87" s="1"/>
-      <c r="BB87" s="1"/>
+      <c r="BB87" s="3"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2">
@@ -10333,7 +10345,7 @@
       <c r="C88" s="1">
         <v>4.0</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="5" t="s">
         <v>313</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -10475,7 +10487,7 @@
       <c r="BA88" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BB88" s="7">
+      <c r="BB88" s="3">
         <v>45091.0</v>
       </c>
     </row>
@@ -10489,7 +10501,7 @@
       <c r="C89" s="1">
         <v>4.0</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="5" t="s">
         <v>319</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -10637,7 +10649,7 @@
       <c r="BA89" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BB89" s="7">
+      <c r="BB89" s="3">
         <v>45091.0</v>
       </c>
     </row>
@@ -10651,7 +10663,7 @@
       <c r="C90" s="1">
         <v>4.0</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="5" t="s">
         <v>328</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -10795,7 +10807,7 @@
       <c r="BA90" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BB90" s="7">
+      <c r="BB90" s="3">
         <v>45090.0</v>
       </c>
     </row>
@@ -10809,7 +10821,7 @@
       <c r="C91" s="1">
         <v>4.0</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="5" t="s">
         <v>335</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -10953,7 +10965,7 @@
       <c r="BA91" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BB91" s="7">
+      <c r="BB91" s="3">
         <v>45092.0</v>
       </c>
     </row>
@@ -10967,7 +10979,7 @@
       <c r="C92" s="1">
         <v>4.0</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="5" t="s">
         <v>344</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -11109,7 +11121,7 @@
       <c r="BA92" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BB92" s="7">
+      <c r="BB92" s="3">
         <v>45092.0</v>
       </c>
     </row>
@@ -11123,7 +11135,7 @@
       <c r="C93" s="1">
         <v>4.0</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="5" t="s">
         <v>351</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -11269,7 +11281,7 @@
       <c r="BA93" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BB93" s="7">
+      <c r="BB93" s="3">
         <v>45095.0</v>
       </c>
     </row>
@@ -11283,7 +11295,7 @@
       <c r="C94" s="1">
         <v>4.0</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="D94" s="5" t="s">
         <v>360</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -11423,7 +11435,7 @@
       <c r="BA94" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BB94" s="7">
+      <c r="BB94" s="3">
         <v>45095.0</v>
       </c>
     </row>
@@ -11437,7 +11449,7 @@
       <c r="C95" s="1">
         <v>4.0</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="5" t="s">
         <v>365</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -11579,7 +11591,7 @@
       <c r="BA95" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BB95" s="7">
+      <c r="BB95" s="3">
         <v>45095.0</v>
       </c>
     </row>
@@ -11750,7 +11762,7 @@
       <c r="C97" s="2">
         <v>1.0</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D97" s="5" t="s">
         <v>380</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -11877,7 +11889,7 @@
       <c r="AT97" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AU97" s="4" t="s">
+      <c r="AU97" s="5" t="s">
         <v>388</v>
       </c>
       <c r="AV97" s="1" t="s">
@@ -11898,7 +11910,7 @@
       <c r="BA97" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BB97" s="7">
+      <c r="BB97" s="3">
         <v>45109.0</v>
       </c>
     </row>
@@ -11912,7 +11924,7 @@
       <c r="C98" s="2">
         <v>6.0</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="5" t="s">
         <v>391</v>
       </c>
       <c r="E98" s="1" t="s">
@@ -12058,7 +12070,7 @@
       <c r="BA98" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BB98" s="7">
+      <c r="BB98" s="3">
         <v>45109.0</v>
       </c>
     </row>
@@ -12072,7 +12084,7 @@
       <c r="C99" s="2">
         <v>1.0</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D99" s="5" t="s">
         <v>399</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -12214,7 +12226,7 @@
       <c r="BA99" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BB99" s="7">
+      <c r="BB99" s="3">
         <v>45109.0</v>
       </c>
     </row>
@@ -12228,7 +12240,7 @@
       <c r="C100" s="2">
         <v>3.0</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="5" t="s">
         <v>405</v>
       </c>
       <c r="E100" s="1" t="s">
@@ -12369,7 +12381,7 @@
       <c r="BA100" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BB100" s="7">
+      <c r="BB100" s="3">
         <v>45110.0</v>
       </c>
     </row>
@@ -12383,7 +12395,7 @@
       <c r="C101" s="18">
         <v>44987.0</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="5" t="s">
         <v>413</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -12525,7 +12537,7 @@
       <c r="BA101" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BB101" s="7">
+      <c r="BB101" s="3">
         <v>45110.0</v>
       </c>
     </row>
@@ -12539,7 +12551,7 @@
       <c r="C102" s="2">
         <v>4.0</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="5" t="s">
         <v>420</v>
       </c>
       <c r="E102" s="1" t="s">
@@ -12679,7 +12691,7 @@
       <c r="BA102" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BB102" s="7">
+      <c r="BB102" s="3">
         <v>45110.0</v>
       </c>
     </row>
@@ -12737,7 +12749,7 @@
       <c r="AY103" s="1"/>
       <c r="AZ103" s="1"/>
       <c r="BA103" s="1"/>
-      <c r="BB103" s="1"/>
+      <c r="BB103" s="3"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
@@ -12793,7 +12805,7 @@
       <c r="AY104" s="1"/>
       <c r="AZ104" s="1"/>
       <c r="BA104" s="1"/>
-      <c r="BB104" s="1"/>
+      <c r="BB104" s="3"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
@@ -12849,7 +12861,7 @@
       <c r="AY105" s="1"/>
       <c r="AZ105" s="1"/>
       <c r="BA105" s="1"/>
-      <c r="BB105" s="1"/>
+      <c r="BB105" s="3"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
@@ -12905,7 +12917,7 @@
       <c r="AY106" s="1"/>
       <c r="AZ106" s="1"/>
       <c r="BA106" s="1"/>
-      <c r="BB106" s="1"/>
+      <c r="BB106" s="3"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
@@ -12961,7 +12973,7 @@
       <c r="AY107" s="1"/>
       <c r="AZ107" s="1"/>
       <c r="BA107" s="1"/>
-      <c r="BB107" s="1"/>
+      <c r="BB107" s="3"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
@@ -13017,7 +13029,7 @@
       <c r="AY108" s="1"/>
       <c r="AZ108" s="1"/>
       <c r="BA108" s="1"/>
-      <c r="BB108" s="1"/>
+      <c r="BB108" s="3"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
@@ -13073,7 +13085,7 @@
       <c r="AY109" s="1"/>
       <c r="AZ109" s="1"/>
       <c r="BA109" s="1"/>
-      <c r="BB109" s="1"/>
+      <c r="BB109" s="3"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="17"/>
@@ -13129,7 +13141,7 @@
       <c r="AY110" s="1"/>
       <c r="AZ110" s="1"/>
       <c r="BA110" s="1"/>
-      <c r="BB110" s="1"/>
+      <c r="BB110" s="3"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="17"/>
@@ -13185,7 +13197,7 @@
       <c r="AY111" s="1"/>
       <c r="AZ111" s="1"/>
       <c r="BA111" s="1"/>
-      <c r="BB111" s="1"/>
+      <c r="BB111" s="3"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="17"/>
@@ -13205,7 +13217,7 @@
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
-      <c r="R112" s="8"/>
+      <c r="R112" s="7"/>
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
@@ -13241,7 +13253,7 @@
       <c r="AY112" s="1"/>
       <c r="AZ112" s="1"/>
       <c r="BA112" s="1"/>
-      <c r="BB112" s="1"/>
+      <c r="BB112" s="3"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="17"/>
@@ -13261,7 +13273,7 @@
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
-      <c r="R113" s="8"/>
+      <c r="R113" s="7"/>
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
@@ -13297,7 +13309,7 @@
       <c r="AY113" s="1"/>
       <c r="AZ113" s="1"/>
       <c r="BA113" s="1"/>
-      <c r="BB113" s="1"/>
+      <c r="BB113" s="3"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="17"/>
@@ -13353,7 +13365,7 @@
       <c r="AY114" s="1"/>
       <c r="AZ114" s="1"/>
       <c r="BA114" s="1"/>
-      <c r="BB114" s="1"/>
+      <c r="BB114" s="3"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="17"/>
@@ -13409,7 +13421,7 @@
       <c r="AY115" s="1"/>
       <c r="AZ115" s="1"/>
       <c r="BA115" s="1"/>
-      <c r="BB115" s="1"/>
+      <c r="BB115" s="3"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1"/>
@@ -13465,7 +13477,7 @@
       <c r="AY116" s="1"/>
       <c r="AZ116" s="1"/>
       <c r="BA116" s="1"/>
-      <c r="BB116" s="1"/>
+      <c r="BB116" s="3"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1"/>
@@ -13521,7 +13533,7 @@
       <c r="AY117" s="1"/>
       <c r="AZ117" s="1"/>
       <c r="BA117" s="1"/>
-      <c r="BB117" s="1"/>
+      <c r="BB117" s="3"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1"/>
@@ -13577,7 +13589,7 @@
       <c r="AY118" s="1"/>
       <c r="AZ118" s="1"/>
       <c r="BA118" s="1"/>
-      <c r="BB118" s="1"/>
+      <c r="BB118" s="3"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1"/>
@@ -13633,7 +13645,7 @@
       <c r="AY119" s="1"/>
       <c r="AZ119" s="1"/>
       <c r="BA119" s="1"/>
-      <c r="BB119" s="1"/>
+      <c r="BB119" s="3"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1"/>
@@ -13689,7 +13701,7 @@
       <c r="AY120" s="1"/>
       <c r="AZ120" s="1"/>
       <c r="BA120" s="1"/>
-      <c r="BB120" s="1"/>
+      <c r="BB120" s="3"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1"/>
@@ -13745,7 +13757,7 @@
       <c r="AY121" s="1"/>
       <c r="AZ121" s="1"/>
       <c r="BA121" s="1"/>
-      <c r="BB121" s="1"/>
+      <c r="BB121" s="3"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1"/>
@@ -13801,7 +13813,7 @@
       <c r="AY122" s="1"/>
       <c r="AZ122" s="1"/>
       <c r="BA122" s="1"/>
-      <c r="BB122" s="1"/>
+      <c r="BB122" s="3"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1"/>
@@ -13857,7 +13869,7 @@
       <c r="AY123" s="1"/>
       <c r="AZ123" s="1"/>
       <c r="BA123" s="1"/>
-      <c r="BB123" s="1"/>
+      <c r="BB123" s="3"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1"/>
@@ -13913,7 +13925,7 @@
       <c r="AY124" s="1"/>
       <c r="AZ124" s="1"/>
       <c r="BA124" s="1"/>
-      <c r="BB124" s="1"/>
+      <c r="BB124" s="3"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1"/>
@@ -13969,7 +13981,7 @@
       <c r="AY125" s="1"/>
       <c r="AZ125" s="1"/>
       <c r="BA125" s="1"/>
-      <c r="BB125" s="1"/>
+      <c r="BB125" s="3"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1"/>
@@ -14025,7 +14037,7 @@
       <c r="AY126" s="1"/>
       <c r="AZ126" s="1"/>
       <c r="BA126" s="1"/>
-      <c r="BB126" s="1"/>
+      <c r="BB126" s="3"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1"/>
@@ -14081,7 +14093,7 @@
       <c r="AY127" s="1"/>
       <c r="AZ127" s="1"/>
       <c r="BA127" s="1"/>
-      <c r="BB127" s="1"/>
+      <c r="BB127" s="3"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
@@ -14137,7 +14149,7 @@
       <c r="AY128" s="1"/>
       <c r="AZ128" s="1"/>
       <c r="BA128" s="1"/>
-      <c r="BB128" s="1"/>
+      <c r="BB128" s="3"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
@@ -14193,7 +14205,7 @@
       <c r="AY129" s="1"/>
       <c r="AZ129" s="1"/>
       <c r="BA129" s="1"/>
-      <c r="BB129" s="1"/>
+      <c r="BB129" s="3"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1"/>
@@ -14249,7 +14261,7 @@
       <c r="AY130" s="1"/>
       <c r="AZ130" s="1"/>
       <c r="BA130" s="1"/>
-      <c r="BB130" s="1"/>
+      <c r="BB130" s="3"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1"/>
@@ -14305,7 +14317,7 @@
       <c r="AY131" s="1"/>
       <c r="AZ131" s="1"/>
       <c r="BA131" s="1"/>
-      <c r="BB131" s="1"/>
+      <c r="BB131" s="3"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1"/>
@@ -14361,7 +14373,7 @@
       <c r="AY132" s="1"/>
       <c r="AZ132" s="1"/>
       <c r="BA132" s="1"/>
-      <c r="BB132" s="1"/>
+      <c r="BB132" s="3"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1"/>
@@ -14417,7 +14429,7 @@
       <c r="AY133" s="1"/>
       <c r="AZ133" s="1"/>
       <c r="BA133" s="1"/>
-      <c r="BB133" s="1"/>
+      <c r="BB133" s="3"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1"/>
@@ -14473,7 +14485,7 @@
       <c r="AY134" s="1"/>
       <c r="AZ134" s="1"/>
       <c r="BA134" s="1"/>
-      <c r="BB134" s="1"/>
+      <c r="BB134" s="3"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1"/>
@@ -14529,7 +14541,7 @@
       <c r="AY135" s="1"/>
       <c r="AZ135" s="1"/>
       <c r="BA135" s="1"/>
-      <c r="BB135" s="1"/>
+      <c r="BB135" s="3"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1"/>
@@ -14585,7 +14597,7 @@
       <c r="AY136" s="1"/>
       <c r="AZ136" s="1"/>
       <c r="BA136" s="1"/>
-      <c r="BB136" s="1"/>
+      <c r="BB136" s="3"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1"/>
@@ -14641,7 +14653,7 @@
       <c r="AY137" s="1"/>
       <c r="AZ137" s="1"/>
       <c r="BA137" s="1"/>
-      <c r="BB137" s="1"/>
+      <c r="BB137" s="3"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1"/>
@@ -14697,7 +14709,7 @@
       <c r="AY138" s="1"/>
       <c r="AZ138" s="1"/>
       <c r="BA138" s="1"/>
-      <c r="BB138" s="1"/>
+      <c r="BB138" s="3"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1"/>
@@ -14753,7 +14765,7 @@
       <c r="AY139" s="1"/>
       <c r="AZ139" s="1"/>
       <c r="BA139" s="1"/>
-      <c r="BB139" s="1"/>
+      <c r="BB139" s="3"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1"/>
@@ -14809,7 +14821,7 @@
       <c r="AY140" s="1"/>
       <c r="AZ140" s="1"/>
       <c r="BA140" s="1"/>
-      <c r="BB140" s="1"/>
+      <c r="BB140" s="3"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1"/>
@@ -14865,7 +14877,7 @@
       <c r="AY141" s="1"/>
       <c r="AZ141" s="1"/>
       <c r="BA141" s="1"/>
-      <c r="BB141" s="1"/>
+      <c r="BB141" s="3"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1"/>
@@ -14921,7 +14933,7 @@
       <c r="AY142" s="1"/>
       <c r="AZ142" s="1"/>
       <c r="BA142" s="1"/>
-      <c r="BB142" s="1"/>
+      <c r="BB142" s="3"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1"/>
@@ -14977,7 +14989,7 @@
       <c r="AY143" s="1"/>
       <c r="AZ143" s="1"/>
       <c r="BA143" s="1"/>
-      <c r="BB143" s="1"/>
+      <c r="BB143" s="3"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1"/>
@@ -15033,7 +15045,7 @@
       <c r="AY144" s="1"/>
       <c r="AZ144" s="1"/>
       <c r="BA144" s="1"/>
-      <c r="BB144" s="1"/>
+      <c r="BB144" s="3"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1"/>
@@ -15089,7 +15101,7 @@
       <c r="AY145" s="1"/>
       <c r="AZ145" s="1"/>
       <c r="BA145" s="1"/>
-      <c r="BB145" s="1"/>
+      <c r="BB145" s="3"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1"/>
@@ -15145,7 +15157,7 @@
       <c r="AY146" s="1"/>
       <c r="AZ146" s="1"/>
       <c r="BA146" s="1"/>
-      <c r="BB146" s="1"/>
+      <c r="BB146" s="3"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1"/>
@@ -15201,7 +15213,7 @@
       <c r="AY147" s="1"/>
       <c r="AZ147" s="1"/>
       <c r="BA147" s="1"/>
-      <c r="BB147" s="1"/>
+      <c r="BB147" s="3"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="19"/>
@@ -15257,7 +15269,7 @@
       <c r="AY148" s="1"/>
       <c r="AZ148" s="1"/>
       <c r="BA148" s="1"/>
-      <c r="BB148" s="1"/>
+      <c r="BB148" s="3"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="19"/>
@@ -15313,839 +15325,2501 @@
       <c r="AY149" s="1"/>
       <c r="AZ149" s="1"/>
       <c r="BA149" s="1"/>
-      <c r="BB149" s="1"/>
-    </row>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
+      <c r="BB149" s="3"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="BB150" s="20"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="BB151" s="20"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="BB152" s="20"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="BB153" s="20"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="BB154" s="20"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="BB155" s="20"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="BB156" s="20"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="BB157" s="20"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="BB158" s="20"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="BB159" s="20"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="BB160" s="20"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="BB161" s="20"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="BB162" s="20"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="BB163" s="20"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="BB164" s="20"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="BB165" s="20"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="BB166" s="20"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="BB167" s="20"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="BB168" s="20"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="BB169" s="20"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="BB170" s="20"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="BB171" s="20"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="BB172" s="20"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="BB173" s="20"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="BB174" s="20"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="BB175" s="20"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="BB176" s="20"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="BB177" s="20"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="BB178" s="20"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="BB179" s="20"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="BB180" s="20"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="BB181" s="20"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="BB182" s="20"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="BB183" s="20"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="BB184" s="20"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="BB185" s="20"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="BB186" s="20"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="BB187" s="20"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="BB188" s="20"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="BB189" s="20"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="BB190" s="20"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="BB191" s="20"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="BB192" s="20"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="BB193" s="20"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="BB194" s="20"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="BB195" s="20"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="BB196" s="20"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="BB197" s="20"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="BB198" s="20"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="BB199" s="20"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="BB200" s="20"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="BB201" s="20"/>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="BB202" s="20"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="BB203" s="20"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="BB204" s="20"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="BB205" s="20"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="BB206" s="20"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="BB207" s="20"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="BB208" s="20"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="BB209" s="20"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="BB210" s="20"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="BB211" s="20"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="BB212" s="20"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="BB213" s="20"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="BB214" s="20"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="BB215" s="20"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="BB216" s="20"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="BB217" s="20"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="BB218" s="20"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="BB219" s="20"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="BB220" s="20"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="BB221" s="20"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="BB222" s="20"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="BB223" s="20"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="BB224" s="20"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="BB225" s="20"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="BB226" s="20"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="BB227" s="20"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="BB228" s="20"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="BB229" s="20"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="BB230" s="20"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="BB231" s="20"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="BB232" s="20"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="BB233" s="20"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="BB234" s="20"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="BB235" s="20"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="BB236" s="20"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="BB237" s="20"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="BB238" s="20"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="BB239" s="20"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="BB240" s="20"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="BB241" s="20"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="BB242" s="20"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="BB243" s="20"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="BB244" s="20"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="BB245" s="20"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="BB246" s="20"/>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="BB247" s="20"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="BB248" s="20"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="BB249" s="20"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="BB250" s="20"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="BB251" s="20"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="BB252" s="20"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="BB253" s="20"/>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="BB254" s="20"/>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="BB255" s="20"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="BB256" s="20"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="BB257" s="20"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="BB258" s="20"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="BB259" s="20"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="BB260" s="20"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="BB261" s="20"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="BB262" s="20"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="BB263" s="20"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="BB264" s="20"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="BB265" s="20"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="BB266" s="20"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="BB267" s="20"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="BB268" s="20"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="BB269" s="20"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="BB270" s="20"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="BB271" s="20"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="BB272" s="20"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="BB273" s="20"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="BB274" s="20"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="BB275" s="20"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="BB276" s="20"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="BB277" s="20"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="BB278" s="20"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="BB279" s="20"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="BB280" s="20"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="BB281" s="20"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="BB282" s="20"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="BB283" s="20"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="BB284" s="20"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="BB285" s="20"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="BB286" s="20"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="BB287" s="20"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="BB288" s="20"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="BB289" s="20"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="BB290" s="20"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="BB291" s="20"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="BB292" s="20"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="BB293" s="20"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="BB294" s="20"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="BB295" s="20"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="BB296" s="20"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="BB297" s="20"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="BB298" s="20"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="BB299" s="20"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="BB300" s="20"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="BB301" s="20"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="BB302" s="20"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="BB303" s="20"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="BB304" s="20"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="BB305" s="20"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="BB306" s="20"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="BB307" s="20"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="BB308" s="20"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="BB309" s="20"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="BB310" s="20"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="BB311" s="20"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="BB312" s="20"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="BB313" s="20"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="BB314" s="20"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="BB315" s="20"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="BB316" s="20"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="BB317" s="20"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="BB318" s="20"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="BB319" s="20"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="BB320" s="20"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="BB321" s="20"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="BB322" s="20"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="BB323" s="20"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="BB324" s="20"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="BB325" s="20"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="BB326" s="20"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="BB327" s="20"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="BB328" s="20"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="BB329" s="20"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="BB330" s="20"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="BB331" s="20"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="BB332" s="20"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="BB333" s="20"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="BB334" s="20"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="BB335" s="20"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="BB336" s="20"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="BB337" s="20"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="BB338" s="20"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="BB339" s="20"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="BB340" s="20"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="BB341" s="20"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="BB342" s="20"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="BB343" s="20"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="BB344" s="20"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="BB345" s="20"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="BB346" s="20"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="BB347" s="20"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="BB348" s="20"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="BB349" s="20"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="BB350" s="20"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="BB351" s="20"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="BB352" s="20"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="BB353" s="20"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="BB354" s="20"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="BB355" s="20"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="BB356" s="20"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="BB357" s="20"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="BB358" s="20"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="BB359" s="20"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="BB360" s="20"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="BB361" s="20"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="BB362" s="20"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="BB363" s="20"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="BB364" s="20"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="BB365" s="20"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="BB366" s="20"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="BB367" s="20"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="BB368" s="20"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="BB369" s="20"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="BB370" s="20"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="BB371" s="20"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="BB372" s="20"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="BB373" s="20"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="BB374" s="20"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="BB375" s="20"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="BB376" s="20"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="BB377" s="20"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="BB378" s="20"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="BB379" s="20"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="BB380" s="20"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="BB381" s="20"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="BB382" s="20"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="BB383" s="20"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="BB384" s="20"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="BB385" s="20"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="BB386" s="20"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="BB387" s="20"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="BB388" s="20"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="BB389" s="20"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="BB390" s="20"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="BB391" s="20"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="BB392" s="20"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="BB393" s="20"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="BB394" s="20"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="BB395" s="20"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="BB396" s="20"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="BB397" s="20"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="BB398" s="20"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="BB399" s="20"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="BB400" s="20"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="BB401" s="20"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="BB402" s="20"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="BB403" s="20"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="BB404" s="20"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="BB405" s="20"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="BB406" s="20"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="BB407" s="20"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="BB408" s="20"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="BB409" s="20"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="BB410" s="20"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="BB411" s="20"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="BB412" s="20"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="BB413" s="20"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="BB414" s="20"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="BB415" s="20"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="BB416" s="20"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="BB417" s="20"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="BB418" s="20"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="BB419" s="20"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="BB420" s="20"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="BB421" s="20"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="BB422" s="20"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="BB423" s="20"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="BB424" s="20"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="BB425" s="20"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="BB426" s="20"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="BB427" s="20"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="BB428" s="20"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="BB429" s="20"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="BB430" s="20"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="BB431" s="20"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="BB432" s="20"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="BB433" s="20"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="BB434" s="20"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="BB435" s="20"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="BB436" s="20"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="BB437" s="20"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="BB438" s="20"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="BB439" s="20"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="BB440" s="20"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="BB441" s="20"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="BB442" s="20"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="BB443" s="20"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="BB444" s="20"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="BB445" s="20"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="BB446" s="20"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="BB447" s="20"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="BB448" s="20"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="BB449" s="20"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="BB450" s="20"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="BB451" s="20"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="BB452" s="20"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="BB453" s="20"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="BB454" s="20"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="BB455" s="20"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="BB456" s="20"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="BB457" s="20"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="BB458" s="20"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="BB459" s="20"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="BB460" s="20"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="BB461" s="20"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="BB462" s="20"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="BB463" s="20"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="BB464" s="20"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="BB465" s="20"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="BB466" s="20"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="BB467" s="20"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="BB468" s="20"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="BB469" s="20"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="BB470" s="20"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="BB471" s="20"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="BB472" s="20"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="BB473" s="20"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="BB474" s="20"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="BB475" s="20"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="BB476" s="20"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="BB477" s="20"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="BB478" s="20"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="BB479" s="20"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="BB480" s="20"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="BB481" s="20"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="BB482" s="20"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="BB483" s="20"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="BB484" s="20"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="BB485" s="20"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="BB486" s="20"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="BB487" s="20"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="BB488" s="20"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="BB489" s="20"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="BB490" s="20"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="BB491" s="20"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="BB492" s="20"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="BB493" s="20"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="BB494" s="20"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="BB495" s="20"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="BB496" s="20"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="BB497" s="20"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="BB498" s="20"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="BB499" s="20"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="BB500" s="20"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="BB501" s="20"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="BB502" s="20"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="BB503" s="20"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="BB504" s="20"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="BB505" s="20"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="BB506" s="20"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="BB507" s="20"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="BB508" s="20"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="BB509" s="20"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="BB510" s="20"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="BB511" s="20"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="BB512" s="20"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="BB513" s="20"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="BB514" s="20"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="BB515" s="20"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="BB516" s="20"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="BB517" s="20"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="BB518" s="20"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="BB519" s="20"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="BB520" s="20"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="BB521" s="20"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="BB522" s="20"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="BB523" s="20"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="BB524" s="20"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="BB525" s="20"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="BB526" s="20"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="BB527" s="20"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="BB528" s="20"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="BB529" s="20"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="BB530" s="20"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="BB531" s="20"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="BB532" s="20"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="BB533" s="20"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="BB534" s="20"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="BB535" s="20"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="BB536" s="20"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="BB537" s="20"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="BB538" s="20"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="BB539" s="20"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="BB540" s="20"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="BB541" s="20"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="BB542" s="20"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="BB543" s="20"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="BB544" s="20"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="BB545" s="20"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="BB546" s="20"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="BB547" s="20"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="BB548" s="20"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="BB549" s="20"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="BB550" s="20"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="BB551" s="20"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="BB552" s="20"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="BB553" s="20"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="BB554" s="20"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="BB555" s="20"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="BB556" s="20"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="BB557" s="20"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="BB558" s="20"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="BB559" s="20"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="BB560" s="20"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="BB561" s="20"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="BB562" s="20"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="BB563" s="20"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="BB564" s="20"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="BB565" s="20"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="BB566" s="20"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="BB567" s="20"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="BB568" s="20"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="BB569" s="20"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="BB570" s="20"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="BB571" s="20"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="BB572" s="20"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="BB573" s="20"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="BB574" s="20"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="BB575" s="20"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="BB576" s="20"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="BB577" s="20"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="BB578" s="20"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="BB579" s="20"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="BB580" s="20"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="BB581" s="20"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="BB582" s="20"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="BB583" s="20"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="BB584" s="20"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="BB585" s="20"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="BB586" s="20"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="BB587" s="20"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="BB588" s="20"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="BB589" s="20"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="BB590" s="20"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="BB591" s="20"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="BB592" s="20"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="BB593" s="20"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="BB594" s="20"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="BB595" s="20"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="BB596" s="20"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="BB597" s="20"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="BB598" s="20"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="BB599" s="20"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="BB600" s="20"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="BB601" s="20"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="BB602" s="20"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="BB603" s="20"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="BB604" s="20"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="BB605" s="20"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="BB606" s="20"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="BB607" s="20"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="BB608" s="20"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="BB609" s="20"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="BB610" s="20"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="BB611" s="20"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="BB612" s="20"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="BB613" s="20"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="BB614" s="20"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="BB615" s="20"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="BB616" s="20"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="BB617" s="20"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="BB618" s="20"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="BB619" s="20"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="BB620" s="20"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="BB621" s="20"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="BB622" s="20"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="BB623" s="20"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="BB624" s="20"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="BB625" s="20"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="BB626" s="20"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="BB627" s="20"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="BB628" s="20"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="BB629" s="20"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="BB630" s="20"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="BB631" s="20"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="BB632" s="20"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="BB633" s="20"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="BB634" s="20"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="BB635" s="20"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="BB636" s="20"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="BB637" s="20"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="BB638" s="20"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="BB639" s="20"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="BB640" s="20"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="BB641" s="20"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="BB642" s="20"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="BB643" s="20"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="BB644" s="20"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="BB645" s="20"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="BB646" s="20"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="BB647" s="20"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="BB648" s="20"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="BB649" s="20"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="BB650" s="20"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="BB651" s="20"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="BB652" s="20"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="BB653" s="20"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="BB654" s="20"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="BB655" s="20"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="BB656" s="20"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="BB657" s="20"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="BB658" s="20"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="BB659" s="20"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="BB660" s="20"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="BB661" s="20"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="BB662" s="20"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="BB663" s="20"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="BB664" s="20"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="BB665" s="20"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="BB666" s="20"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="BB667" s="20"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="BB668" s="20"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="BB669" s="20"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="BB670" s="20"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="BB671" s="20"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="BB672" s="20"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="BB673" s="20"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="BB674" s="20"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="BB675" s="20"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="BB676" s="20"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="BB677" s="20"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="BB678" s="20"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="BB679" s="20"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="BB680" s="20"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="BB681" s="20"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="BB682" s="20"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="BB683" s="20"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="BB684" s="20"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="BB685" s="20"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="BB686" s="20"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="BB687" s="20"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="BB688" s="20"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="BB689" s="20"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="BB690" s="20"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="BB691" s="20"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="BB692" s="20"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="BB693" s="20"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="BB694" s="20"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="BB695" s="20"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="BB696" s="20"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="BB697" s="20"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="BB698" s="20"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="BB699" s="20"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="BB700" s="20"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="BB701" s="20"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="BB702" s="20"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="BB703" s="20"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="BB704" s="20"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="BB705" s="20"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="BB706" s="20"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="BB707" s="20"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="BB708" s="20"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="BB709" s="20"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="BB710" s="20"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="BB711" s="20"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="BB712" s="20"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="BB713" s="20"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="BB714" s="20"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="BB715" s="20"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="BB716" s="20"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="BB717" s="20"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="BB718" s="20"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="BB719" s="20"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="BB720" s="20"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="BB721" s="20"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="BB722" s="20"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="BB723" s="20"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="BB724" s="20"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="BB725" s="20"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="BB726" s="20"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="BB727" s="20"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="BB728" s="20"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="BB729" s="20"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="BB730" s="20"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="BB731" s="20"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="BB732" s="20"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="BB733" s="20"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="BB734" s="20"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="BB735" s="20"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="BB736" s="20"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="BB737" s="20"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="BB738" s="20"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="BB739" s="20"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="BB740" s="20"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="BB741" s="20"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="BB742" s="20"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="BB743" s="20"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="BB744" s="20"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="BB745" s="20"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="BB746" s="20"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="BB747" s="20"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="BB748" s="20"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="BB749" s="20"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="BB750" s="20"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="BB751" s="20"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="BB752" s="20"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="BB753" s="20"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="BB754" s="20"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="BB755" s="20"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="BB756" s="20"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="BB757" s="20"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="BB758" s="20"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="BB759" s="20"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="BB760" s="20"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="BB761" s="20"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="BB762" s="20"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="BB763" s="20"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="BB764" s="20"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="BB765" s="20"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="BB766" s="20"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="BB767" s="20"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="BB768" s="20"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="BB769" s="20"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="BB770" s="20"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="BB771" s="20"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="BB772" s="20"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="BB773" s="20"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="BB774" s="20"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="BB775" s="20"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="BB776" s="20"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="BB777" s="20"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="BB778" s="20"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="BB779" s="20"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="BB780" s="20"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="BB781" s="20"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="BB782" s="20"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="BB783" s="20"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="BB784" s="20"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="BB785" s="20"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="BB786" s="20"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="BB787" s="20"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="BB788" s="20"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="BB789" s="20"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="BB790" s="20"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="BB791" s="20"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="BB792" s="20"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="BB793" s="20"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="BB794" s="20"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="BB795" s="20"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="BB796" s="20"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="BB797" s="20"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="BB798" s="20"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="BB799" s="20"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="BB800" s="20"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="BB801" s="20"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="BB802" s="20"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="BB803" s="20"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="BB804" s="20"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="BB805" s="20"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="BB806" s="20"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="BB807" s="20"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="BB808" s="20"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="BB809" s="20"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="BB810" s="20"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="BB811" s="20"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="BB812" s="20"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="BB813" s="20"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="BB814" s="20"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="BB815" s="20"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="BB816" s="20"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="BB817" s="20"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="BB818" s="20"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="BB819" s="20"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="BB820" s="20"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="BB821" s="20"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="BB822" s="20"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="BB823" s="20"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="BB824" s="20"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="BB825" s="20"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="BB826" s="20"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="BB827" s="20"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="BB828" s="20"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="BB829" s="20"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="BB830" s="20"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="BB831" s="20"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="BB832" s="20"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="BB833" s="20"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="BB834" s="20"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="BB835" s="20"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="BB836" s="20"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="BB837" s="20"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="BB838" s="20"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="BB839" s="20"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="BB840" s="20"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="BB841" s="20"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="BB842" s="20"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="BB843" s="20"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="BB844" s="20"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="BB845" s="20"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="BB846" s="20"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="BB847" s="20"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="BB848" s="20"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="BB849" s="20"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="BB850" s="20"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="BB851" s="20"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="BB852" s="20"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="BB853" s="20"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="BB854" s="20"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="BB855" s="20"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="BB856" s="20"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="BB857" s="20"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="BB858" s="20"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="BB859" s="20"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="BB860" s="20"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="BB861" s="20"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="BB862" s="20"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="BB863" s="20"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="BB864" s="20"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="BB865" s="20"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="BB866" s="20"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="BB867" s="20"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="BB868" s="20"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="BB869" s="20"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="BB870" s="20"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="BB871" s="20"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="BB872" s="20"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="BB873" s="20"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="BB874" s="20"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="BB875" s="20"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="BB876" s="20"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="BB877" s="20"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="BB878" s="20"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="BB879" s="20"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="BB880" s="20"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="BB881" s="20"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="BB882" s="20"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="BB883" s="20"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="BB884" s="20"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="BB885" s="20"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="BB886" s="20"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="BB887" s="20"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="BB888" s="20"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="BB889" s="20"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="BB890" s="20"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="BB891" s="20"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="BB892" s="20"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="BB893" s="20"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="BB894" s="20"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="BB895" s="20"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="BB896" s="20"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="BB897" s="20"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="BB898" s="20"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="BB899" s="20"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="BB900" s="20"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="BB901" s="20"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="BB902" s="20"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="BB903" s="20"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="BB904" s="20"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="BB905" s="20"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="BB906" s="20"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="BB907" s="20"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="BB908" s="20"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="BB909" s="20"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="BB910" s="20"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="BB911" s="20"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="BB912" s="20"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="BB913" s="20"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="BB914" s="20"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="BB915" s="20"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="BB916" s="20"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="BB917" s="20"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="BB918" s="20"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="BB919" s="20"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="BB920" s="20"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="BB921" s="20"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="BB922" s="20"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="BB923" s="20"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="BB924" s="20"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="BB925" s="20"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="BB926" s="20"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="BB927" s="20"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="BB928" s="20"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="BB929" s="20"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="BB930" s="20"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="BB931" s="20"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="BB932" s="20"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="BB933" s="20"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="BB934" s="20"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="BB935" s="20"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="BB936" s="20"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="BB937" s="20"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="BB938" s="20"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="BB939" s="20"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="BB940" s="20"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="BB941" s="20"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="BB942" s="20"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="BB943" s="20"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="BB944" s="20"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="BB945" s="20"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="BB946" s="20"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="BB947" s="20"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="BB948" s="20"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="BB949" s="20"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="BB950" s="20"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="BB951" s="20"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="BB952" s="20"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="BB953" s="20"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="BB954" s="20"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="BB955" s="20"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="BB956" s="20"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="BB957" s="20"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="BB958" s="20"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="BB959" s="20"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="BB960" s="20"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="BB961" s="20"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="BB962" s="20"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="BB963" s="20"/>
+    </row>
+    <row r="964" ht="15.75" customHeight="1">
+      <c r="BB964" s="20"/>
+    </row>
+    <row r="965" ht="15.75" customHeight="1">
+      <c r="BB965" s="20"/>
+    </row>
+    <row r="966" ht="15.75" customHeight="1">
+      <c r="BB966" s="20"/>
+    </row>
+    <row r="967" ht="15.75" customHeight="1">
+      <c r="BB967" s="20"/>
+    </row>
+    <row r="968" ht="15.75" customHeight="1">
+      <c r="BB968" s="20"/>
+    </row>
+    <row r="969" ht="15.75" customHeight="1">
+      <c r="BB969" s="20"/>
+    </row>
+    <row r="970" ht="15.75" customHeight="1">
+      <c r="BB970" s="20"/>
+    </row>
+    <row r="971" ht="15.75" customHeight="1">
+      <c r="BB971" s="20"/>
+    </row>
+    <row r="972" ht="15.75" customHeight="1">
+      <c r="BB972" s="20"/>
+    </row>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="BB973" s="20"/>
+    </row>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="BB974" s="20"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="BB975" s="20"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="BB976" s="20"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="BB977" s="20"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="BB978" s="20"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="BB979" s="20"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="BB980" s="20"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="AY96:AZ96"/>

--- a/data/lit_review_data_bjoern.xlsx
+++ b/data/lit_review_data_bjoern.xlsx
@@ -220,12 +220,6 @@
 	-Bjoern</t>
       </text>
     </comment>
-    <comment authorId="0" ref="Z50">
-      <text>
-        <t xml:space="preserve">estimation and testing
-	-Bjoern</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="V100">
       <text>
         <t xml:space="preserve">between 60 and 480 items with one parameter each?
@@ -256,12 +250,6 @@
 	-Bjoern</t>
       </text>
     </comment>
-    <comment authorId="0" ref="Z101">
-      <text>
-        <t xml:space="preserve">model selection, testing
-	-Bjoern</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="AM21">
       <text>
         <t xml:space="preserve">in the supplement
@@ -277,12 +265,6 @@
     <comment authorId="0" ref="L97">
       <text>
         <t xml:space="preserve">some were based on previous simulation study, some new
-	-Bjoern</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="Z102">
-      <text>
-        <t xml:space="preserve">estimation, testing
 	-Bjoern</t>
       </text>
     </comment>
@@ -328,12 +310,6 @@
 	-Bjoern</t>
       </text>
     </comment>
-    <comment authorId="0" ref="Z91">
-      <text>
-        <t xml:space="preserve">estimation, model selection
-	-Bjoern</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="V84">
       <text>
         <t xml:space="preserve">really depends, again. It is an adaptive testing scheme with 600 items, but the number of estimated parameters of course depends on the adaptive test
@@ -349,12 +325,6 @@
     <comment authorId="0" ref="AL101">
       <text>
         <t xml:space="preserve">Monte Carlo SD, could be used to calculate SE. Also ANOVA
-	-Bjoern</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="Z5">
-      <text>
-        <t xml:space="preserve">and model selection
 	-Bjoern</t>
       </text>
     </comment>
@@ -430,12 +400,6 @@
 	-Bjoern</t>
       </text>
     </comment>
-    <comment authorId="0" ref="Z98">
-      <text>
-        <t xml:space="preserve">estimation, classification
-	-Bjoern</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="X90">
       <text>
         <t xml:space="preserve">not sure here. The parameters are implied by the model, but does this make them known?
@@ -448,12 +412,6 @@
 	-Bjoern</t>
       </text>
     </comment>
-    <comment authorId="0" ref="Z7">
-      <text>
-        <t xml:space="preserve">also estimation
-	-Bjoern</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="R99">
       <text>
         <t xml:space="preserve">it's a group-level model, so each dataset just once?
@@ -463,18 +421,6 @@
     <comment authorId="0" ref="W13">
       <text>
         <t xml:space="preserve">aggregated in figure
-	-Bjoern</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="Z29">
-      <text>
-        <t xml:space="preserve">estimation and testing
-	-Bjoern</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="Z90">
-      <text>
-        <t xml:space="preserve">estimation, testing
 	-Bjoern</t>
       </text>
     </comment>
@@ -495,7 +441,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="433">
   <si>
     <t>year</t>
   </si>
@@ -737,6 +683,9 @@
     <t>"We simulated a total of 50 samples for each condition; a number that is customary for simulation studies in Bayesian psychometrics because MCMC algorithms are very time-consuming. This number of samples is sufficient to estimate means and variances of the sampled quantities and to identify patterns in the data, while keeping computation within reasonable time limits (Levy et al., 2015)."</t>
   </si>
   <si>
+    <t>estimation, model selection</t>
+  </si>
+  <si>
     <t>EPR, EPS</t>
   </si>
   <si>
@@ -773,246 +722,249 @@
     <t>fully-factorial</t>
   </si>
   <si>
+    <t>design, estimation</t>
+  </si>
+  <si>
+    <t>median of quantiles of newly developed metric</t>
+  </si>
+  <si>
+    <t>Difference between certain quantiles of a metric and true parameter shown, could be seen as bias</t>
+  </si>
+  <si>
+    <t>unclear to me if the first simulation study of the paper is supposed to be a simulation study or just an example of simulation-based power analysis; kept very brief</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/00273171.2020.1809981</t>
+  </si>
+  <si>
+    <t>"three simulation studies were conducted to evaluate the performance of 15 statistics"</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>CCR (correct classifcation rate)</t>
+  </si>
+  <si>
+    <t>For some conditions, only "best" results are shown, other results are in the supplement</t>
+  </si>
+  <si>
+    <t>figures look like screenshots from an excel spreadsheet</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/00273171.2020.1815513</t>
+  </si>
+  <si>
+    <t>"Monte Carlo simulations were conducted to examine the finite-sample properties of the SEKF estimator in nonlinear time-varying parameter state space models." […] "in addition to the overall performance of the estimator in terms of parameter recovery we were also interested in answering a number of preliminary questions relevant to the use of these models in psychological research. First, is the estimator able to accurately recover multiple timevarying parameters when they exist in the data generating model? Second, what is the impact of allowing many model parameters to vary in the estimated model when only a subset of those parameters are time-varying in the true or data generating model? Finally, we also wanted to better understand the potential advantages of our proposed square-root algorithm (SR-SEKF) over the standard second-order EKF (SEKF)."</t>
+  </si>
+  <si>
+    <t>two different scenarios as main conditions</t>
+  </si>
+  <si>
+    <t>4+</t>
+  </si>
+  <si>
+    <t>efficiency (standard deviation of estimates), accuracy, computational efficiency (number of iterations)</t>
+  </si>
+  <si>
+    <t>they use the mean percentage of relative bias as performance measure, with no decimal places. Seems a bit misleading</t>
+  </si>
+  <si>
+    <t>"All the estimation routines described in this paper and employed for the simulations and empirical example were coded in R by the first author."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">they call it two simulations, but later state that these are the two "main simulation conditions". I've coded it as one sim. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.1037/met0000444 </t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>A simulation study was designed to answer the following questions when the same conditions of the empirical study (i.e., the same number of time points, trials, persons, items, and sessions) and covariates are considered: (a) can the fixed experimental condition effects and their standard errors be recovered?; (b) what are the consequences of ignoring spatial and temporal effects in testing the experimental condition effects?</t>
+  </si>
+  <si>
+    <t>parametric based on actual data</t>
+  </si>
+  <si>
+    <t>simulate from estimated model, then compare two modelling strategies</t>
+  </si>
+  <si>
+    <t>estimated</t>
+  </si>
+  <si>
+    <t>standard deviations</t>
+  </si>
+  <si>
+    <t>they merely implemented it in mgcv</t>
+  </si>
+  <si>
+    <t>they provide extensive code for model fitting, which also includes a seed somewhere. But they do not provide the code for their simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.1037/met0000359 </t>
+  </si>
+  <si>
+    <t>"Although the validity of our sampling algorithm can be justified on mathematical grounds (Geman and Geman, 1984), in this section we provide a simulation to further demonstrate the model performance and its ability to generate a rich set of output."</t>
+  </si>
+  <si>
+    <t>they look at difference between estimate and true value and at Credible Interval, but they do not calculate a performance measure</t>
+  </si>
+  <si>
+    <t>R, Stata</t>
+  </si>
+  <si>
+    <t>"The R code and data used in this paper are available in GitHub at https:// github.com/jtm508/bayestraj. Vignettes are also provided to help users adapt the code to applications of their own interest."</t>
+  </si>
+  <si>
+    <t>accessible online</t>
+  </si>
+  <si>
+    <t>https://github.com/jtm508/bayestraj</t>
+  </si>
+  <si>
+    <t>not sure if this should be included. More of a demonstration than a full simulation</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1037/met0000368</t>
+  </si>
+  <si>
+    <t>"We conducted two simulation studies to determine how well our latent mixture-based method performs compared with the traditional methods. The simulation studies focused on two outcomes. One was the comparison of statistical power (i.e., 1 _x0004_ Type II error rate) attained by different methods given the same Type I error rate."</t>
+  </si>
+  <si>
+    <t>did not vary low level of moderator (give a long explanation for that)</t>
+  </si>
+  <si>
+    <t>No information on this anywhere</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>"The download link and a brief description of an R package for our latent mixture-based method is available in the online supplemental materials."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.1037/met0000387 </t>
+  </si>
+  <si>
+    <t>"systemically examine the effectivesness of the Bayesian Lasso in three factor loading settings:[…]"</t>
+  </si>
+  <si>
+    <t>more of parameter recovery study than full simulation</t>
+  </si>
+  <si>
+    <t>Sounds like they just simulated data without repeated iterations</t>
+  </si>
+  <si>
+    <t>384+?</t>
+  </si>
+  <si>
+    <t>correlation estimated with true values, false-alarm rate, miss rate</t>
+  </si>
+  <si>
+    <t>they talk about bias in the results, but do not actually compute it; only look at it visually</t>
+  </si>
+  <si>
+    <t>wrote their own MCMC sampler</t>
+  </si>
+  <si>
+    <t>https://github.com/MbCN-lab/LassoFANDDM</t>
+  </si>
+  <si>
+    <t>seed is not in the simulation script, but in the "main" script. Still counted it as yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.1037/met0000351 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.1037/met0000408 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.1037/met0000415 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://doi.org/10.1037/met0000505 </t>
+  </si>
+  <si>
+    <t>http://doi.org/10.1037/met0000319</t>
+  </si>
+  <si>
+    <t>"to compare this implementation with three other maximum likelihood-based models in their accuracy to estimate true scores"</t>
+  </si>
+  <si>
+    <t>sample size, dgp</t>
+  </si>
+  <si>
+    <t>MAE, correlation between estimates and true values</t>
+  </si>
+  <si>
+    <t>R, JAGS</t>
+  </si>
+  <si>
+    <t>JAGS model</t>
+  </si>
+  <si>
+    <t>https://osf.io/5vnxc/</t>
+  </si>
+  <si>
+    <t>seed provided in a different part of the scripts, but still coded as "yes"</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1037/met0000312</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1037/met0000314</t>
+  </si>
+  <si>
+    <t>"Three simulation studies were conducted to illustrate estimating the proposed interventional indirect effects. […] simply to demonstrate the estimators presented in the preceding section"</t>
+  </si>
+  <si>
+    <t>sample size</t>
+  </si>
+  <si>
+    <t>they check if average estimate is equal to true coefficient, which could be interpreted as bias</t>
+  </si>
+  <si>
+    <t>https://github.com/wwloh/disentangle-multiple-mediators</t>
+  </si>
+  <si>
+    <t>the simulation coded here merely dealt as illustration that a certain model specification can recover unbiased estimates on average</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1037/met0000340</t>
+  </si>
+  <si>
+    <t>"we run simulations to assess, if all the functional and distributional assumptions of the mediator and outcome are satisfied or if part of them is violated, to what extent the proposed sensitivity analysis strategy would approximate the true NIE and NDE when incorporated with the regression-based and weighting-based causal mediation analysis methods"</t>
+  </si>
+  <si>
+    <t>model specification, link function, error distribution, type of misspecification, sensitivity parameters</t>
+  </si>
+  <si>
+    <t>visual inspection of median estimate with true estimate (no calculation), sampling variability (visual inspection of boxplot)</t>
+  </si>
+  <si>
+    <t>We have also developed an R package that implements the proposed method (https://cran.r-project.org/web/packages/mediationsens/index.html).</t>
+  </si>
+  <si>
+    <t>this was the most unneccessarily complex description of a simulation study so far. Different subscenarios within different scenarios</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1037/met0000330</t>
+  </si>
+  <si>
+    <t>"we evaluate the robustness of the proposed power analysis by focusing on the two assumptions—constant within-cluster variance of predictor and constant cluster size"</t>
+  </si>
+  <si>
+    <t>L2 sample size, cluster size, data-generating mechanism, effect in focus</t>
+  </si>
+  <si>
     <t>design</t>
   </si>
   <si>
-    <t>median of quantiles of newly developed metric</t>
-  </si>
-  <si>
-    <t>Difference between certain quantiles of a metric and true parameter shown, could be seen as bias</t>
-  </si>
-  <si>
-    <t>unclear to me if the first simulation study of the paper is supposed to be a simulation study or just an example of simulation-based power analysis; kept very brief</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1080/00273171.2020.1809981</t>
-  </si>
-  <si>
-    <t>"three simulation studies were conducted to evaluate the performance of 15 statistics"</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>CCR (correct classifcation rate)</t>
-  </si>
-  <si>
-    <t>For some conditions, only "best" results are shown, other results are in the supplement</t>
-  </si>
-  <si>
-    <t>figures look like screenshots from an excel spreadsheet</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1080/00273171.2020.1815513</t>
-  </si>
-  <si>
-    <t>"Monte Carlo simulations were conducted to examine the finite-sample properties of the SEKF estimator in nonlinear time-varying parameter state space models." […] "in addition to the overall performance of the estimator in terms of parameter recovery we were also interested in answering a number of preliminary questions relevant to the use of these models in psychological research. First, is the estimator able to accurately recover multiple timevarying parameters when they exist in the data generating model? Second, what is the impact of allowing many model parameters to vary in the estimated model when only a subset of those parameters are time-varying in the true or data generating model? Finally, we also wanted to better understand the potential advantages of our proposed square-root algorithm (SR-SEKF) over the standard second-order EKF (SEKF)."</t>
-  </si>
-  <si>
-    <t>two different scenarios as main conditions</t>
-  </si>
-  <si>
-    <t>4+</t>
-  </si>
-  <si>
-    <t>efficiency (standard deviation of estimates), accuracy, computational efficiency (number of iterations)</t>
-  </si>
-  <si>
-    <t>they use the mean percentage of relative bias as performance measure, with no decimal places. Seems a bit misleading</t>
-  </si>
-  <si>
-    <t>"All the estimation routines described in this paper and employed for the simulations and empirical example were coded in R by the first author."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">they call it two simulations, but later state that these are the two "main simulation conditions". I've coded it as one sim. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.1037/met0000444 </t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>A simulation study was designed to answer the following questions when the same conditions of the empirical study (i.e., the same number of time points, trials, persons, items, and sessions) and covariates are considered: (a) can the fixed experimental condition effects and their standard errors be recovered?; (b) what are the consequences of ignoring spatial and temporal effects in testing the experimental condition effects?</t>
-  </si>
-  <si>
-    <t>parametric based on actual data</t>
-  </si>
-  <si>
-    <t>simulate from estimated model, then compare two modelling strategies</t>
-  </si>
-  <si>
-    <t>estimated</t>
-  </si>
-  <si>
-    <t>standard deviations</t>
-  </si>
-  <si>
-    <t>they merely implemented it in mgcv</t>
-  </si>
-  <si>
-    <t>they provide extensive code for model fitting, which also includes a seed somewhere. But they do not provide the code for their simulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.1037/met0000359 </t>
-  </si>
-  <si>
-    <t>"Although the validity of our sampling algorithm can be justified on mathematical grounds (Geman and Geman, 1984), in this section we provide a simulation to further demonstrate the model performance and its ability to generate a rich set of output."</t>
-  </si>
-  <si>
-    <t>they look at difference between estimate and true value and at Credible Interval, but they do not calculate a performance measure</t>
-  </si>
-  <si>
-    <t>R, Stata</t>
-  </si>
-  <si>
-    <t>"The R code and data used in this paper are available in GitHub at https:// github.com/jtm508/bayestraj. Vignettes are also provided to help users adapt the code to applications of their own interest."</t>
-  </si>
-  <si>
-    <t>accessible online</t>
-  </si>
-  <si>
-    <t>https://github.com/jtm508/bayestraj</t>
-  </si>
-  <si>
-    <t>not sure if this should be included. More of a demonstration than a full simulation</t>
-  </si>
-  <si>
-    <t>http://doi.org/10.1037/met0000368</t>
-  </si>
-  <si>
-    <t>"We conducted two simulation studies to determine how well our latent mixture-based method performs compared with the traditional methods. The simulation studies focused on two outcomes. One was the comparison of statistical power (i.e., 1 _x0004_ Type II error rate) attained by different methods given the same Type I error rate."</t>
-  </si>
-  <si>
-    <t>did not vary low level of moderator (give a long explanation for that)</t>
-  </si>
-  <si>
-    <t>No information on this anywhere</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>"The download link and a brief description of an R package for our latent mixture-based method is available in the online supplemental materials."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.1037/met0000387 </t>
-  </si>
-  <si>
-    <t>"systemically examine the effectivesness of the Bayesian Lasso in three factor loading settings:[…]"</t>
-  </si>
-  <si>
-    <t>more of parameter recovery study than full simulation</t>
-  </si>
-  <si>
-    <t>Sounds like they just simulated data without repeated iterations</t>
-  </si>
-  <si>
-    <t>384+?</t>
-  </si>
-  <si>
-    <t>correlation estimated with true values, false-alarm rate, miss rate</t>
-  </si>
-  <si>
-    <t>they talk about bias in the results, but do not actually compute it; only look at it visually</t>
-  </si>
-  <si>
-    <t>wrote their own MCMC sampler</t>
-  </si>
-  <si>
-    <t>https://github.com/MbCN-lab/LassoFANDDM</t>
-  </si>
-  <si>
-    <t>seed is not in the simulation script, but in the "main" script. Still counted it as yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.1037/met0000351 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.1037/met0000408 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.1037/met0000415 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://doi.org/10.1037/met0000505 </t>
-  </si>
-  <si>
-    <t>http://doi.org/10.1037/met0000319</t>
-  </si>
-  <si>
-    <t>"to compare this implementation with three other maximum likelihood-based models in their accuracy to estimate true scores"</t>
-  </si>
-  <si>
-    <t>sample size, dgp</t>
-  </si>
-  <si>
-    <t>MAE, correlation between estimates and true values</t>
-  </si>
-  <si>
-    <t>R, JAGS</t>
-  </si>
-  <si>
-    <t>JAGS model</t>
-  </si>
-  <si>
-    <t>https://osf.io/5vnxc/</t>
-  </si>
-  <si>
-    <t>seed provided in a different part of the scripts, but still coded as "yes"</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1037/met0000312</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1037/met0000314</t>
-  </si>
-  <si>
-    <t>"Three simulation studies were conducted to illustrate estimating the proposed interventional indirect effects. […] simply to demonstrate the estimators presented in the preceding section"</t>
-  </si>
-  <si>
-    <t>sample size</t>
-  </si>
-  <si>
-    <t>they check if average estimate is equal to true coefficient, which could be interpreted as bias</t>
-  </si>
-  <si>
-    <t>https://github.com/wwloh/disentangle-multiple-mediators</t>
-  </si>
-  <si>
-    <t>the simulation coded here merely dealt as illustration that a certain model specification can recover unbiased estimates on average</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1037/met0000340</t>
-  </si>
-  <si>
-    <t>"we run simulations to assess, if all the functional and distributional assumptions of the mediator and outcome are satisfied or if part of them is violated, to what extent the proposed sensitivity analysis strategy would approximate the true NIE and NDE when incorporated with the regression-based and weighting-based causal mediation analysis methods"</t>
-  </si>
-  <si>
-    <t>model specification, link function, error distribution, type of misspecification, sensitivity parameters</t>
-  </si>
-  <si>
-    <t>visual inspection of median estimate with true estimate (no calculation), sampling variability (visual inspection of boxplot)</t>
-  </si>
-  <si>
-    <t>We have also developed an R package that implements the proposed method (https://cran.r-project.org/web/packages/mediationsens/index.html).</t>
-  </si>
-  <si>
-    <t>this was the most unneccessarily complex description of a simulation study so far. Different subscenarios within different scenarios</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1037/met0000330</t>
-  </si>
-  <si>
-    <t>"we evaluate the robustness of the proposed power analysis by focusing on the two assumptions—constant within-cluster variance of predictor and constant cluster size"</t>
-  </si>
-  <si>
-    <t>L2 sample size, cluster size, data-generating mechanism, effect in focus</t>
-  </si>
-  <si>
     <t>RMSE of the power compared to another power analysis method</t>
   </si>
   <si>
@@ -1082,6 +1034,9 @@
     <t>"A simulation study was conducted to (i) compare the performance of the 2moME model against that of the conventional moME model, and (ii) examine the performance of Bayesian methods in estimating and testing the moME effects and the corresponding ESs under different conditions."</t>
   </si>
   <si>
+    <t>estimation, testing</t>
+  </si>
+  <si>
     <t>extensive supplement containing all results</t>
   </si>
   <si>
@@ -1679,6 +1634,9 @@
     <t>7+</t>
   </si>
   <si>
+    <t>estimation, classification</t>
+  </si>
+  <si>
     <t>pattern correct classification rate, attribute correct clasisification rate</t>
   </si>
   <si>
@@ -1743,6 +1701,9 @@
   </si>
   <si>
     <t>sample size, model size, factor loading level, factor inter-correlations</t>
+  </si>
+  <si>
+    <t>model selection, testing</t>
   </si>
   <si>
     <t>proportion of model fit rejection, means and standard deviations of estimates, coefficient of variation</t>
@@ -1876,11 +1837,11 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2241,7 +2202,7 @@
       <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="AA1" s="1" t="s">
@@ -2688,8 +2649,8 @@
       <c r="Y5" s="1">
         <v>2.0</v>
       </c>
-      <c r="Z5" s="1" t="s">
-        <v>66</v>
+      <c r="Z5" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="AA5" s="1" t="s">
         <v>56</v>
@@ -2716,16 +2677,16 @@
         <v>56</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM5" s="1" t="s">
         <v>58</v>
@@ -2740,7 +2701,7 @@
         <v>56</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AR5" s="1" t="s">
         <v>56</v>
@@ -2760,13 +2721,13 @@
         <v>56</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BA5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB5" s="3">
         <v>45083.0</v>
@@ -2783,7 +2744,7 @@
         <v>1.0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>54</v>
@@ -2853,7 +2814,7 @@
         <v>1.0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>54</v>
@@ -2874,7 +2835,7 @@
         <v>58</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>60</v>
@@ -2886,13 +2847,13 @@
         <v>6.0</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P7" s="1">
         <v>1.0</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R7" s="1">
         <v>10.0</v>
@@ -2916,8 +2877,8 @@
       <c r="Y7" s="1">
         <v>1.0</v>
       </c>
-      <c r="Z7" s="1" t="s">
-        <v>92</v>
+      <c r="Z7" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="AA7" s="1" t="s">
         <v>56</v>
@@ -2944,13 +2905,13 @@
         <v>56</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ7" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AK7" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AL7" s="1" t="s">
         <v>67</v>
@@ -2989,10 +2950,10 @@
       </c>
       <c r="AY7" s="1"/>
       <c r="AZ7" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BA7" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB7" s="3">
         <v>45083.0</v>
@@ -3009,7 +2970,7 @@
         <v>1.0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>54</v>
@@ -3030,7 +2991,7 @@
         <v>58</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>60</v>
@@ -3046,7 +3007,7 @@
         <v>3.0</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R8" s="1">
         <v>200.0</v>
@@ -3071,7 +3032,7 @@
         <v>1.0</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA8" s="1" t="s">
         <v>56</v>
@@ -3098,13 +3059,13 @@
         <v>56</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AJ8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL8" s="1" t="s">
         <v>67</v>
@@ -3142,10 +3103,10 @@
         <v>56</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BA8" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BB8" s="3">
         <v>45084.0</v>
@@ -3162,7 +3123,7 @@
         <v>1.0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>54</v>
@@ -3183,7 +3144,7 @@
         <v>58</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>60</v>
@@ -3195,13 +3156,13 @@
         <v>12.0</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P9" s="1">
         <v>3.0</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R9" s="1">
         <v>100.0</v>
@@ -3214,7 +3175,7 @@
         <v>58</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>56</v>
@@ -3253,13 +3214,13 @@
         <v>56</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AJ9" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AL9" s="1" t="s">
         <v>67</v>
@@ -3283,7 +3244,7 @@
         <v>58</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AT9" s="1" t="s">
         <v>70</v>
@@ -3300,10 +3261,10 @@
       </c>
       <c r="AY9" s="1"/>
       <c r="AZ9" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BA9" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BB9" s="3">
         <v>45084.0</v>
@@ -3320,10 +3281,10 @@
         <v>3.0</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>55</v>
@@ -3341,10 +3302,10 @@
         <v>58</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>58</v>
@@ -3353,7 +3314,7 @@
         <v>1.0</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P10" s="1">
         <v>0.0</v>
@@ -3378,7 +3339,7 @@
         <v>58</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y10" s="1">
         <v>2.0</v>
@@ -3411,7 +3372,7 @@
         <v>56</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -3437,7 +3398,7 @@
         <v>56</v>
       </c>
       <c r="AS10" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AT10" s="1" t="s">
         <v>70</v>
@@ -3453,11 +3414,11 @@
         <v>56</v>
       </c>
       <c r="AY10" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BB10" s="3">
         <v>45090.0</v>
@@ -3474,10 +3435,10 @@
         <v>3.0</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>55</v>
@@ -3495,7 +3456,7 @@
         <v>58</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>60</v>
@@ -3567,7 +3528,7 @@
         <v>56</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AL11" s="1" t="s">
         <v>67</v>
@@ -3585,19 +3546,19 @@
         <v>56</v>
       </c>
       <c r="AQ11" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AR11" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AV11" s="1" t="s">
         <v>58</v>
@@ -3610,10 +3571,10 @@
       </c>
       <c r="AY11" s="1"/>
       <c r="AZ11" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BA11" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB11" s="3">
         <v>45090.0</v>
@@ -3630,10 +3591,10 @@
         <v>3.0</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>55</v>
@@ -3651,7 +3612,7 @@
         <v>58</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>60</v>
@@ -3663,7 +3624,7 @@
         <v>108.0</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P12" s="1">
         <v>4.0</v>
@@ -3678,7 +3639,7 @@
         <v>56</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>58</v>
@@ -3696,7 +3657,7 @@
         <v>3.0</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA12" s="1" t="s">
         <v>56</v>
@@ -3723,14 +3684,14 @@
         <v>56</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AJ12" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AM12" s="1" t="s">
         <v>56</v>
@@ -3751,7 +3712,7 @@
         <v>58</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AT12" s="1" t="s">
         <v>70</v>
@@ -3769,7 +3730,7 @@
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
       <c r="BA12" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB12" s="3">
         <v>45090.0</v>
@@ -3786,10 +3747,10 @@
         <v>3.0</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>55</v>
@@ -3807,7 +3768,7 @@
         <v>58</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>60</v>
@@ -3819,7 +3780,7 @@
         <v>1.0</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P13" s="1">
         <v>0.0</v>
@@ -3834,13 +3795,13 @@
         <v>56</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>56</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>58</v>
@@ -3879,13 +3840,13 @@
         <v>56</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AJ13" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL13" s="1" t="s">
         <v>67</v>
@@ -3909,13 +3870,13 @@
         <v>58</v>
       </c>
       <c r="AS13" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AU13" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AV13" s="1" t="s">
         <v>58</v>
@@ -3927,13 +3888,13 @@
         <v>56</v>
       </c>
       <c r="AY13" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AZ13" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BA13" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB13" s="3">
         <v>45103.0</v>
@@ -3950,10 +3911,10 @@
         <v>3.0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>55</v>
@@ -4020,10 +3981,10 @@
         <v>3.0</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>55</v>
@@ -4090,10 +4051,10 @@
         <v>3.0</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>55</v>
@@ -4160,10 +4121,10 @@
         <v>3.0</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>55</v>
@@ -4230,10 +4191,10 @@
         <v>6.0</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>55</v>
@@ -4251,7 +4212,7 @@
         <v>58</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>60</v>
@@ -4263,13 +4224,13 @@
         <v>9.0</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P18" s="1">
         <v>2.0</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R18" s="1">
         <v>100.0</v>
@@ -4321,7 +4282,7 @@
         <v>58</v>
       </c>
       <c r="AI18" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AJ18" s="1" t="s">
         <v>58</v>
@@ -4343,19 +4304,19 @@
         <v>56</v>
       </c>
       <c r="AQ18" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AR18" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AS18" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AU18" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AV18" s="1" t="s">
         <v>58</v>
@@ -4367,11 +4328,11 @@
         <v>56</v>
       </c>
       <c r="AY18" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AZ18" s="1"/>
       <c r="BA18" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BB18" s="3">
         <v>45101.0</v>
@@ -4388,10 +4349,10 @@
         <v>6.0</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>55</v>
@@ -4458,10 +4419,10 @@
         <v>6.0</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>55</v>
@@ -4479,10 +4440,10 @@
         <v>58</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>58</v>
@@ -4491,13 +4452,13 @@
         <v>3.0</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P20" s="1">
         <v>1.0</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R20" s="1">
         <v>10000.0</v>
@@ -4553,7 +4514,7 @@
         <v>58</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL20" s="1" t="s">
         <v>67</v>
@@ -4578,10 +4539,10 @@
       </c>
       <c r="AS20" s="1"/>
       <c r="AT20" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AV20" s="1"/>
       <c r="AW20" s="1" t="s">
@@ -4592,10 +4553,10 @@
       </c>
       <c r="AY20" s="1"/>
       <c r="AZ20" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BA20" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BB20" s="3">
         <v>45101.0</v>
@@ -4612,10 +4573,10 @@
         <v>6.0</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>55</v>
@@ -4633,7 +4594,7 @@
         <v>58</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>60</v>
@@ -4645,7 +4606,7 @@
         <v>102.0</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P21" s="1">
         <v>5.0</v>
@@ -4703,14 +4664,14 @@
         <v>56</v>
       </c>
       <c r="AI21" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AJ21" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM21" s="1" t="s">
         <v>58</v>
@@ -4731,7 +4692,7 @@
         <v>58</v>
       </c>
       <c r="AS21" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AT21" s="1" t="s">
         <v>70</v>
@@ -4746,10 +4707,10 @@
       </c>
       <c r="AY21" s="1"/>
       <c r="AZ21" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BA21" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB21" s="3">
         <v>45103.0</v>
@@ -4766,10 +4727,10 @@
         <v>6.0</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>55</v>
@@ -4787,7 +4748,7 @@
         <v>58</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>60</v>
@@ -4799,13 +4760,13 @@
         <v>81.0</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P22" s="1">
         <v>2.0</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R22" s="1">
         <v>500.0</v>
@@ -4830,7 +4791,7 @@
         <v>3.0</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="AA22" s="1" t="s">
         <v>56</v>
@@ -4861,10 +4822,10 @@
         <v>58</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AM22" s="1" t="s">
         <v>56</v>
@@ -4885,7 +4846,7 @@
         <v>58</v>
       </c>
       <c r="AS22" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AT22" s="1" t="s">
         <v>70</v>
@@ -4899,11 +4860,11 @@
         <v>56</v>
       </c>
       <c r="AY22" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BB22" s="3">
         <v>45103.0</v>
@@ -4920,10 +4881,10 @@
         <v>6.0</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>55</v>
@@ -4990,10 +4951,10 @@
         <v>6.0</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>55</v>
@@ -5046,7 +5007,7 @@
       <c r="AX24" s="1"/>
       <c r="AY24" s="1"/>
       <c r="AZ24" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BA24" s="1"/>
       <c r="BB24" s="3"/>
@@ -5061,11 +5022,11 @@
       <c r="C25" s="1">
         <v>6.0</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>179</v>
+      <c r="D25" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>55</v>
@@ -5083,17 +5044,19 @@
         <v>58</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M25" s="1"/>
+      <c r="M25" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="N25" s="1">
         <v>1296.0</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P25" s="1">
         <v>7.0</v>
@@ -5108,7 +5071,7 @@
         <v>58</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>58</v>
@@ -5153,14 +5116,14 @@
         <v>56</v>
       </c>
       <c r="AI25" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AJ25" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AK25" s="1"/>
       <c r="AL25" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM25" s="1" t="s">
         <v>58</v>
@@ -5175,19 +5138,19 @@
         <v>56</v>
       </c>
       <c r="AQ25" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AR25" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AU25" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AV25" s="1" t="s">
         <v>71</v>
@@ -5199,11 +5162,11 @@
         <v>56</v>
       </c>
       <c r="AY25" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB25" s="3">
         <v>45103.0</v>
@@ -5220,10 +5183,10 @@
         <v>6.0</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>55</v>
@@ -5276,7 +5239,7 @@
       <c r="AX26" s="1"/>
       <c r="AY26" s="1"/>
       <c r="AZ26" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BA26" s="1"/>
       <c r="BB26" s="3"/>
@@ -5292,10 +5255,10 @@
         <v>2.0</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>55</v>
@@ -5362,10 +5325,10 @@
         <v>2.0</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>55</v>
@@ -5416,7 +5379,7 @@
       <c r="AX28" s="1"/>
       <c r="AY28" s="1"/>
       <c r="AZ28" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="BA28" s="1"/>
       <c r="BB28" s="3"/>
@@ -5432,10 +5395,10 @@
         <v>2.0</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>55</v>
@@ -5453,7 +5416,7 @@
         <v>58</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>60</v>
@@ -5469,7 +5432,7 @@
         <v>3.0</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R29" s="1">
         <v>1000.0</v>
@@ -5493,8 +5456,8 @@
       <c r="Y29" s="1">
         <v>2.0</v>
       </c>
-      <c r="Z29" s="1" t="s">
-        <v>66</v>
+      <c r="Z29" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="AA29" s="1" t="s">
         <v>56</v>
@@ -5525,7 +5488,7 @@
         <v>58</v>
       </c>
       <c r="AK29" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AL29" s="1" t="s">
         <v>67</v>
@@ -5543,13 +5506,13 @@
         <v>56</v>
       </c>
       <c r="AQ29" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AR29" s="1" t="s">
         <v>64</v>
       </c>
       <c r="AS29" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AT29" s="1" t="s">
         <v>70</v>
@@ -5565,13 +5528,13 @@
         <v>56</v>
       </c>
       <c r="AY29" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AZ29" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="BA29" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BB29" s="3">
         <v>45103.0</v>
@@ -5588,10 +5551,10 @@
         <v>2.0</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>55</v>
@@ -5658,10 +5621,10 @@
         <v>2.0</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>55</v>
@@ -5728,10 +5691,10 @@
         <v>2.0</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>55</v>
@@ -5798,10 +5761,10 @@
         <v>2.0</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>55</v>
@@ -5868,10 +5831,10 @@
         <v>2.0</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>55</v>
@@ -5938,10 +5901,10 @@
         <v>2.0</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>55</v>
@@ -6008,10 +5971,10 @@
         <v>2.0</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>55</v>
@@ -6078,10 +6041,10 @@
         <v>2.0</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>55</v>
@@ -6148,10 +6111,10 @@
         <v>2.0</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>55</v>
@@ -6218,10 +6181,10 @@
         <v>2.0</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>55</v>
@@ -6288,10 +6251,10 @@
         <v>2.0</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>55</v>
@@ -6358,10 +6321,10 @@
         <v>2.0</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>55</v>
@@ -6428,10 +6391,10 @@
         <v>2.0</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>55</v>
@@ -6449,10 +6412,10 @@
         <v>58</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>58</v>
@@ -6461,13 +6424,13 @@
         <v>8.0</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P42" s="1">
         <v>3.0</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R42" s="1">
         <v>500.0</v>
@@ -6492,7 +6455,7 @@
         <v>2.0</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AA42" s="1" t="s">
         <v>56</v>
@@ -6519,13 +6482,13 @@
         <v>56</v>
       </c>
       <c r="AI42" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AJ42" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AK42" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AL42" s="1" t="s">
         <v>67</v>
@@ -6550,10 +6513,10 @@
       </c>
       <c r="AS42" s="1"/>
       <c r="AT42" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AU42" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AV42" s="1" t="s">
         <v>58</v>
@@ -6565,15 +6528,15 @@
         <v>56</v>
       </c>
       <c r="AY42" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AZ42" s="6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="BA42" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BB42" s="8">
+        <v>87</v>
+      </c>
+      <c r="BB42" s="9">
         <v>45099.0</v>
       </c>
     </row>
@@ -6588,10 +6551,10 @@
         <v>2.0</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>55</v>
@@ -6658,10 +6621,10 @@
         <v>2.0</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>55</v>
@@ -6728,10 +6691,10 @@
         <v>2.0</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>55</v>
@@ -6798,10 +6761,10 @@
         <v>2.0</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>55</v>
@@ -6868,10 +6831,10 @@
         <v>2.0</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>55</v>
@@ -6938,10 +6901,10 @@
         <v>2.0</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>55</v>
@@ -7008,10 +6971,10 @@
         <v>2.0</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>55</v>
@@ -7078,10 +7041,10 @@
         <v>2.0</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>55</v>
@@ -7099,7 +7062,7 @@
         <v>58</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>60</v>
@@ -7111,13 +7074,13 @@
         <v>1944.0</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P50" s="1">
         <v>7.0</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R50" s="1">
         <v>1000.0</v>
@@ -7141,8 +7104,8 @@
       <c r="Y50" s="1">
         <v>1.0</v>
       </c>
-      <c r="Z50" s="1" t="s">
-        <v>66</v>
+      <c r="Z50" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="AA50" s="1" t="s">
         <v>56</v>
@@ -7173,7 +7136,7 @@
         <v>58</v>
       </c>
       <c r="AK50" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AL50" s="1" t="s">
         <v>67</v>
@@ -7191,19 +7154,19 @@
         <v>56</v>
       </c>
       <c r="AQ50" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AR50" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AS50" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AT50" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AU50" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AV50" s="1" t="s">
         <v>58</v>
@@ -7215,13 +7178,13 @@
         <v>56</v>
       </c>
       <c r="AY50" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AZ50" s="1"/>
       <c r="BA50" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BB50" s="8">
+        <v>103</v>
+      </c>
+      <c r="BB50" s="9">
         <v>45099.0</v>
       </c>
     </row>
@@ -7236,10 +7199,10 @@
         <v>2.0</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>55</v>
@@ -7306,10 +7269,10 @@
         <v>2.0</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>55</v>
@@ -7376,10 +7339,10 @@
         <v>2.0</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>55</v>
@@ -7446,10 +7409,10 @@
         <v>2.0</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>55</v>
@@ -7516,10 +7479,10 @@
         <v>2.0</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>55</v>
@@ -7537,7 +7500,7 @@
         <v>56</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>60</v>
@@ -7549,13 +7512,13 @@
         <v>2.0</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P55" s="1">
         <v>3.0</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R55" s="1">
         <v>100.0</v>
@@ -7627,19 +7590,19 @@
         <v>56</v>
       </c>
       <c r="AQ55" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AR55" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AS55" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AT55" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AU55" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AV55" s="1" t="s">
         <v>71</v>
@@ -7652,10 +7615,10 @@
       </c>
       <c r="AY55" s="1"/>
       <c r="AZ55" s="6" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="BA55" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB55" s="3">
         <v>45100.0</v>
@@ -7672,10 +7635,10 @@
         <v>2.0</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>55</v>
@@ -7742,10 +7705,10 @@
         <v>5.0</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>55</v>
@@ -7763,7 +7726,7 @@
         <v>58</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>60</v>
@@ -7775,13 +7738,13 @@
         <v>12.0</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P57" s="1">
         <v>2.0</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R57" s="1">
         <v>500.0</v>
@@ -7794,7 +7757,7 @@
         <v>56</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="W57" s="1" t="s">
         <v>58</v>
@@ -7833,7 +7796,7 @@
         <v>56</v>
       </c>
       <c r="AI57" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AJ57" s="1" t="s">
         <v>58</v>
@@ -7861,31 +7824,31 @@
         <v>58</v>
       </c>
       <c r="AS57" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AT57" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AU57" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AV57" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AW57" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AX57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AY57" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AZ57" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="BA57" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BB57" s="3">
         <v>45100.0</v>
@@ -7901,11 +7864,11 @@
       <c r="C58" s="1">
         <v>5.0</v>
       </c>
-      <c r="D58" s="9" t="s">
-        <v>258</v>
+      <c r="D58" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>55</v>
@@ -7972,10 +7935,10 @@
         <v>5.0</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>55</v>
@@ -7993,7 +7956,7 @@
         <v>58</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>60</v>
@@ -8005,13 +7968,13 @@
         <v>8.0</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P59" s="1">
         <v>3.0</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R59" s="1">
         <v>500.0</v>
@@ -8024,7 +7987,7 @@
         <v>58</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="W59" s="1" t="s">
         <v>58</v>
@@ -8036,7 +7999,7 @@
         <v>3.0</v>
       </c>
       <c r="Z59" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA59" s="1" t="s">
         <v>58</v>
@@ -8090,10 +8053,10 @@
       </c>
       <c r="AS59" s="1"/>
       <c r="AT59" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AU59" s="5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AV59" s="1" t="s">
         <v>58</v>
@@ -8105,13 +8068,13 @@
         <v>56</v>
       </c>
       <c r="AY59" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AZ59" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="BA59" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BB59" s="3">
         <v>45101.0</v>
@@ -8127,11 +8090,11 @@
       <c r="C60" s="1">
         <v>5.0</v>
       </c>
-      <c r="D60" s="9" t="s">
-        <v>266</v>
+      <c r="D60" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>55</v>
@@ -8197,11 +8160,11 @@
       <c r="C61" s="1">
         <v>5.0</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>267</v>
+      <c r="D61" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>55</v>
@@ -8254,7 +8217,7 @@
       <c r="AX61" s="1"/>
       <c r="AY61" s="1"/>
       <c r="AZ61" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="BA61" s="1"/>
     </row>
@@ -8268,11 +8231,11 @@
       <c r="C62" s="1">
         <v>5.0</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>269</v>
+      <c r="D62" s="8" t="s">
+        <v>272</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>55</v>
@@ -8338,11 +8301,11 @@
       <c r="C63" s="1">
         <v>5.0</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>270</v>
+      <c r="D63" s="8" t="s">
+        <v>273</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>55</v>
@@ -8395,7 +8358,7 @@
       <c r="AX63" s="1"/>
       <c r="AY63" s="1"/>
       <c r="AZ63" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="BA63" s="1"/>
     </row>
@@ -8409,11 +8372,11 @@
       <c r="C64" s="1">
         <v>5.0</v>
       </c>
-      <c r="D64" s="9" t="s">
-        <v>271</v>
+      <c r="D64" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>55</v>
@@ -8479,11 +8442,11 @@
       <c r="C65" s="1">
         <v>5.0</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>272</v>
+      <c r="D65" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>55</v>
@@ -8549,11 +8512,11 @@
       <c r="C66" s="1">
         <v>5.0</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>273</v>
+      <c r="D66" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>55</v>
@@ -8619,11 +8582,11 @@
       <c r="C67" s="1">
         <v>5.0</v>
       </c>
-      <c r="D67" s="9" t="s">
-        <v>274</v>
+      <c r="D67" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>55</v>
@@ -8689,11 +8652,11 @@
       <c r="C68" s="1">
         <v>5.0</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>275</v>
+      <c r="D68" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>55</v>
@@ -8759,11 +8722,11 @@
       <c r="C69" s="1">
         <v>5.0</v>
       </c>
-      <c r="D69" s="9" t="s">
-        <v>276</v>
+      <c r="D69" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>55</v>
@@ -8830,10 +8793,10 @@
         <v>5.0</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>55</v>
@@ -8851,7 +8814,7 @@
         <v>58</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>60</v>
@@ -8863,13 +8826,13 @@
         <v>432.0</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P70" s="1">
         <v>5.0</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R70" s="1">
         <v>1000.0</v>
@@ -8894,7 +8857,7 @@
         <v>6.0</v>
       </c>
       <c r="Z70" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA70" s="1" t="s">
         <v>56</v>
@@ -8926,7 +8889,7 @@
       </c>
       <c r="AK70" s="1"/>
       <c r="AL70" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM70" s="1" t="s">
         <v>58</v>
@@ -8955,19 +8918,19 @@
         <v>71</v>
       </c>
       <c r="AW70" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AX70" s="2" t="s">
         <v>56</v>
       </c>
       <c r="AY70" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AZ70" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="BA70" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BB70" s="3">
         <v>45101.0</v>
@@ -8984,10 +8947,10 @@
         <v>5.0</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>55</v>
@@ -9040,7 +9003,7 @@
       <c r="AX71" s="1"/>
       <c r="AY71" s="1"/>
       <c r="AZ71" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="BA71" s="1"/>
       <c r="BB71" s="3"/>
@@ -9055,11 +9018,11 @@
       <c r="C72" s="1">
         <v>5.0</v>
       </c>
-      <c r="D72" s="9" t="s">
-        <v>284</v>
+      <c r="D72" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>55</v>
@@ -9125,11 +9088,11 @@
       <c r="C73" s="1">
         <v>5.0</v>
       </c>
-      <c r="D73" s="9" t="s">
-        <v>285</v>
+      <c r="D73" s="8" t="s">
+        <v>288</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>55</v>
@@ -9195,11 +9158,11 @@
       <c r="C74" s="1">
         <v>5.0</v>
       </c>
-      <c r="D74" s="9" t="s">
-        <v>286</v>
+      <c r="D74" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>55</v>
@@ -9265,11 +9228,11 @@
       <c r="C75" s="1">
         <v>5.0</v>
       </c>
-      <c r="D75" s="9" t="s">
-        <v>287</v>
+      <c r="D75" s="8" t="s">
+        <v>290</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>55</v>
@@ -9335,11 +9298,11 @@
       <c r="C76" s="1">
         <v>5.0</v>
       </c>
-      <c r="D76" s="9" t="s">
-        <v>288</v>
+      <c r="D76" s="8" t="s">
+        <v>291</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>55</v>
@@ -9405,11 +9368,11 @@
       <c r="C77" s="1">
         <v>5.0</v>
       </c>
-      <c r="D77" s="9" t="s">
-        <v>289</v>
+      <c r="D77" s="8" t="s">
+        <v>292</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>55</v>
@@ -9475,11 +9438,11 @@
       <c r="C78" s="1">
         <v>5.0</v>
       </c>
-      <c r="D78" s="9" t="s">
-        <v>290</v>
+      <c r="D78" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>55</v>
@@ -9545,11 +9508,11 @@
       <c r="C79" s="1">
         <v>5.0</v>
       </c>
-      <c r="D79" s="9" t="s">
-        <v>291</v>
+      <c r="D79" s="8" t="s">
+        <v>294</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>55</v>
@@ -9615,11 +9578,11 @@
       <c r="C80" s="1">
         <v>5.0</v>
       </c>
-      <c r="D80" s="9" t="s">
-        <v>292</v>
+      <c r="D80" s="8" t="s">
+        <v>295</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>55</v>
@@ -9685,11 +9648,11 @@
       <c r="C81" s="1">
         <v>5.0</v>
       </c>
-      <c r="D81" s="9" t="s">
-        <v>293</v>
+      <c r="D81" s="8" t="s">
+        <v>296</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>55</v>
@@ -9756,10 +9719,10 @@
         <v>5.0</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>55</v>
@@ -9826,10 +9789,10 @@
         <v>5.0</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>55</v>
@@ -9847,7 +9810,7 @@
         <v>58</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>60</v>
@@ -9859,13 +9822,13 @@
         <v>2.0</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="P83" s="1">
         <v>1.0</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R83" s="1">
         <v>10000.0</v>
@@ -9890,7 +9853,7 @@
         <v>1.0</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AA83" s="1" t="s">
         <v>56</v>
@@ -9917,7 +9880,7 @@
         <v>56</v>
       </c>
       <c r="AI83" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AJ83" s="1" t="s">
         <v>58</v>
@@ -9939,34 +9902,34 @@
         <v>56</v>
       </c>
       <c r="AQ83" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AR83" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AS83" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AT83" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AU83" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AV83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AW83" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AX83" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AY83" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AZ83" s="6" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="BA83" s="1" t="s">
         <v>74</v>
@@ -9986,10 +9949,10 @@
         <v>5.0</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>55</v>
@@ -10007,21 +9970,25 @@
         <v>58</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="L84" s="1"/>
-      <c r="M84" s="1"/>
+        <v>309</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="N84" s="1">
         <v>33.0</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="P84" s="1">
         <v>3.0</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R84" s="1">
         <v>5000.0</v>
@@ -10030,13 +9997,13 @@
         <v>56</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="U84" s="1" t="s">
         <v>56</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="W84" s="1" t="s">
         <v>56</v>
@@ -10048,7 +10015,7 @@
         <v>2.0</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AA84" s="1" t="s">
         <v>56</v>
@@ -10075,14 +10042,14 @@
         <v>56</v>
       </c>
       <c r="AI84" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AJ84" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AK84" s="1"/>
       <c r="AL84" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AM84" s="1" t="s">
         <v>58</v>
@@ -10119,7 +10086,7 @@
       <c r="AY84" s="1"/>
       <c r="AZ84" s="1"/>
       <c r="BA84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB84" s="3">
         <v>45101.0</v>
@@ -10135,11 +10102,11 @@
       <c r="C85" s="1">
         <v>5.0</v>
       </c>
-      <c r="D85" s="9" t="s">
-        <v>310</v>
+      <c r="D85" s="8" t="s">
+        <v>313</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>55</v>
@@ -10205,11 +10172,11 @@
       <c r="C86" s="1">
         <v>5.0</v>
       </c>
-      <c r="D86" s="9" t="s">
-        <v>311</v>
+      <c r="D86" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>55</v>
@@ -10276,7 +10243,7 @@
         <v>4.0</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>54</v>
@@ -10346,7 +10313,7 @@
         <v>4.0</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>54</v>
@@ -10367,7 +10334,7 @@
         <v>58</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>60</v>
@@ -10379,13 +10346,13 @@
         <v>3.0</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P88" s="1">
         <v>1.0</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R88" s="1">
         <v>500.0</v>
@@ -10437,7 +10404,7 @@
         <v>58</v>
       </c>
       <c r="AI88" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AJ88" s="1" t="s">
         <v>58</v>
@@ -10465,7 +10432,7 @@
         <v>58</v>
       </c>
       <c r="AS88" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AT88" s="1" t="s">
         <v>70</v>
@@ -10482,7 +10449,7 @@
       </c>
       <c r="AY88" s="1"/>
       <c r="AZ88" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="BA88" s="1" t="s">
         <v>74</v>
@@ -10502,7 +10469,7 @@
         <v>4.0</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>54</v>
@@ -10523,10 +10490,10 @@
         <v>58</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>58</v>
@@ -10535,13 +10502,13 @@
         <v>96.0</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P89" s="1">
         <v>3.0</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R89" s="1">
         <v>1000.0</v>
@@ -10593,13 +10560,13 @@
         <v>56</v>
       </c>
       <c r="AI89" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AJ89" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AK89" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AL89" s="1" t="s">
         <v>67</v>
@@ -10617,19 +10584,19 @@
         <v>56</v>
       </c>
       <c r="AQ89" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AR89" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AS89" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AT89" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AU89" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AV89" s="1" t="s">
         <v>71</v>
@@ -10641,13 +10608,13 @@
         <v>56</v>
       </c>
       <c r="AY89" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AZ89" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="BA89" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB89" s="3">
         <v>45091.0</v>
@@ -10664,7 +10631,7 @@
         <v>4.0</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>54</v>
@@ -10685,7 +10652,7 @@
         <v>58</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>60</v>
@@ -10697,13 +10664,13 @@
         <v>288.0</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="P90" s="1">
         <v>6.0</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R90" s="1">
         <v>1000.0</v>
@@ -10727,8 +10694,8 @@
       <c r="Y90" s="1">
         <v>6.0</v>
       </c>
-      <c r="Z90" s="1" t="s">
-        <v>66</v>
+      <c r="Z90" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="AA90" s="1" t="s">
         <v>56</v>
@@ -10755,13 +10722,13 @@
         <v>56</v>
       </c>
       <c r="AI90" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AJ90" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AK90" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AL90" s="1" t="s">
         <v>67</v>
@@ -10799,13 +10766,13 @@
         <v>56</v>
       </c>
       <c r="AY90" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AZ90" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="BA90" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BB90" s="3">
         <v>45090.0</v>
@@ -10822,7 +10789,7 @@
         <v>4.0</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>54</v>
@@ -10843,7 +10810,7 @@
         <v>58</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>60</v>
@@ -10855,13 +10822,13 @@
         <v>540.0</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P91" s="1">
         <v>5.0</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R91" s="1">
         <v>1000.0</v>
@@ -10885,8 +10852,8 @@
       <c r="Y91" s="1">
         <v>8.0</v>
       </c>
-      <c r="Z91" s="1" t="s">
-        <v>66</v>
+      <c r="Z91" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="AA91" s="1" t="s">
         <v>58</v>
@@ -10913,16 +10880,16 @@
         <v>56</v>
       </c>
       <c r="AI91" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AJ91" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AK91" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AL91" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AM91" s="1" t="s">
         <v>58</v>
@@ -10937,7 +10904,7 @@
         <v>56</v>
       </c>
       <c r="AQ91" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AR91" s="1" t="s">
         <v>56</v>
@@ -10951,19 +10918,19 @@
         <v>71</v>
       </c>
       <c r="AW91" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AX91" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AY91" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AZ91" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="BA91" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB91" s="3">
         <v>45092.0</v>
@@ -10980,7 +10947,7 @@
         <v>4.0</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>54</v>
@@ -11001,7 +10968,7 @@
         <v>58</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>60</v>
@@ -11013,13 +10980,13 @@
         <v>18.0</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="P92" s="1">
         <v>3.0</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R92" s="1">
         <v>1000.0</v>
@@ -11071,15 +11038,17 @@
         <v>58</v>
       </c>
       <c r="AI92" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AJ92" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AK92" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AL92" s="1"/>
+        <v>351</v>
+      </c>
+      <c r="AL92" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="AM92" s="1" t="s">
         <v>58</v>
       </c>
@@ -11099,7 +11068,7 @@
         <v>58</v>
       </c>
       <c r="AS92" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AT92" s="1" t="s">
         <v>70</v>
@@ -11109,17 +11078,17 @@
         <v>71</v>
       </c>
       <c r="AW92" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AX92" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AY92" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AZ92" s="1"/>
       <c r="BA92" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BB92" s="3">
         <v>45092.0</v>
@@ -11136,7 +11105,7 @@
         <v>4.0</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>54</v>
@@ -11157,10 +11126,10 @@
         <v>58</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>58</v>
@@ -11169,13 +11138,13 @@
         <v>2.0</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P93" s="1">
         <v>1.0</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R93" s="1">
         <v>10000.0</v>
@@ -11184,7 +11153,7 @@
         <v>56</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="U93" s="1" t="s">
         <v>58</v>
@@ -11202,7 +11171,7 @@
         <v>9.0</v>
       </c>
       <c r="Z93" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AA93" s="1" t="s">
         <v>56</v>
@@ -11229,16 +11198,16 @@
         <v>56</v>
       </c>
       <c r="AI93" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AJ93" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AK93" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AL93" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AM93" s="1" t="s">
         <v>56</v>
@@ -11273,13 +11242,13 @@
         <v>56</v>
       </c>
       <c r="AY93" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AZ93" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="BA93" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB93" s="3">
         <v>45095.0</v>
@@ -11296,7 +11265,7 @@
         <v>4.0</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>54</v>
@@ -11317,10 +11286,10 @@
         <v>58</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>58</v>
@@ -11329,7 +11298,7 @@
         <v>15.0</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="P94" s="1">
         <v>4.0</v>
@@ -11413,7 +11382,7 @@
         <v>58</v>
       </c>
       <c r="AS94" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AT94" s="1" t="s">
         <v>70</v>
@@ -11423,17 +11392,17 @@
         <v>71</v>
       </c>
       <c r="AW94" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AX94" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AY94" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AZ94" s="1"/>
       <c r="BA94" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB94" s="3">
         <v>45095.0</v>
@@ -11450,7 +11419,7 @@
         <v>4.0</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>54</v>
@@ -11471,7 +11440,7 @@
         <v>58</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>60</v>
@@ -11483,13 +11452,13 @@
         <v>81.0</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P95" s="1">
         <v>4.0</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R95" s="1">
         <v>10.0</v>
@@ -11541,14 +11510,14 @@
         <v>56</v>
       </c>
       <c r="AI95" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AJ95" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AK95" s="1"/>
       <c r="AL95" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AM95" s="1" t="s">
         <v>58</v>
@@ -11583,13 +11552,13 @@
         <v>56</v>
       </c>
       <c r="AY95" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AZ95" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="BA95" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB95" s="3">
         <v>45095.0</v>
@@ -11606,10 +11575,10 @@
         <v>3.0</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F96" s="13" t="s">
         <v>55</v>
@@ -11627,7 +11596,7 @@
         <v>58</v>
       </c>
       <c r="K96" s="13" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L96" s="13" t="s">
         <v>60</v>
@@ -11639,13 +11608,13 @@
         <v>4.0</v>
       </c>
       <c r="O96" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P96" s="11">
         <v>1.0</v>
       </c>
       <c r="Q96" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R96" s="11">
         <v>1000.0</v>
@@ -11697,13 +11666,13 @@
         <v>56</v>
       </c>
       <c r="AI96" s="15" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AJ96" s="15" t="s">
         <v>58</v>
       </c>
       <c r="AK96" s="15" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AL96" s="15" t="s">
         <v>67</v>
@@ -11721,13 +11690,13 @@
         <v>56</v>
       </c>
       <c r="AQ96" s="13" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AR96" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AS96" s="13" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AT96" s="13" t="s">
         <v>70</v>
@@ -11737,16 +11706,16 @@
         <v>71</v>
       </c>
       <c r="AW96" s="13" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AX96" s="13" t="s">
         <v>56</v>
       </c>
       <c r="AY96" s="13" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="BA96" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB96" s="16">
         <v>45145.0</v>
@@ -11754,7 +11723,7 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="17" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B97" s="2">
         <v>2022.0</v>
@@ -11763,10 +11732,10 @@
         <v>1.0</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>55</v>
@@ -11784,7 +11753,7 @@
         <v>58</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>60</v>
@@ -11796,7 +11765,7 @@
         <v>216.0</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="P97" s="1">
         <v>6.0</v>
@@ -11815,7 +11784,7 @@
         <v>64</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="W97" s="1" t="s">
         <v>58</v>
@@ -11854,16 +11823,16 @@
         <v>56</v>
       </c>
       <c r="AI97" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AJ97" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AK97" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AL97" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AM97" s="1" t="s">
         <v>58</v>
@@ -11884,31 +11853,31 @@
         <v>58</v>
       </c>
       <c r="AS97" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AT97" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AU97" s="5" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AV97" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AW97" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AX97" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AY97" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AZ97" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="BA97" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB97" s="3">
         <v>45109.0</v>
@@ -11916,7 +11885,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="17" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B98" s="2">
         <v>2022.0</v>
@@ -11925,7 +11894,7 @@
         <v>6.0</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>54</v>
@@ -11946,7 +11915,7 @@
         <v>58</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>60</v>
@@ -11958,13 +11927,13 @@
         <v>3.0</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P98" s="1">
         <v>1.0</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R98" s="1">
         <v>30.0</v>
@@ -11977,7 +11946,7 @@
         <v>64</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="W98" s="1" t="s">
         <v>58</v>
@@ -11988,8 +11957,8 @@
       <c r="Y98" s="1">
         <v>2.0</v>
       </c>
-      <c r="Z98" s="1" t="s">
-        <v>66</v>
+      <c r="Z98" s="2" t="s">
+        <v>397</v>
       </c>
       <c r="AA98" s="1" t="s">
         <v>56</v>
@@ -12016,14 +11985,14 @@
         <v>56</v>
       </c>
       <c r="AI98" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AJ98" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AK98" s="1"/>
       <c r="AL98" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AM98" s="1" t="s">
         <v>56</v>
@@ -12038,37 +12007,37 @@
         <v>56</v>
       </c>
       <c r="AQ98" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AR98" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AS98" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="AT98" s="1" t="s">
         <v>70</v>
       </c>
       <c r="AU98" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AV98" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AW98" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AX98" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AY98" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AZ98" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="BA98" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB98" s="3">
         <v>45109.0</v>
@@ -12076,7 +12045,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="17" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B99" s="2">
         <v>2022.0</v>
@@ -12085,10 +12054,10 @@
         <v>1.0</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>55</v>
@@ -12106,10 +12075,10 @@
         <v>58</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>58</v>
@@ -12118,13 +12087,13 @@
         <v>3.0</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="P99" s="1">
         <v>1.0</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R99" s="1">
         <v>1.0</v>
@@ -12176,13 +12145,13 @@
         <v>56</v>
       </c>
       <c r="AI99" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AJ99" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AK99" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AL99" s="1" t="s">
         <v>67</v>
@@ -12200,7 +12169,7 @@
         <v>56</v>
       </c>
       <c r="AQ99" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AR99" s="1" t="s">
         <v>56</v>
@@ -12220,11 +12189,11 @@
         <v>56</v>
       </c>
       <c r="AY99" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AZ99" s="1"/>
       <c r="BA99" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB99" s="3">
         <v>45109.0</v>
@@ -12232,7 +12201,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="17" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B100" s="2">
         <v>2022.0</v>
@@ -12241,10 +12210,10 @@
         <v>3.0</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>55</v>
@@ -12262,7 +12231,7 @@
         <v>58</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>60</v>
@@ -12274,13 +12243,13 @@
         <v>8.0</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="P100" s="1">
         <v>3.0</v>
       </c>
       <c r="Q100" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R100" s="1">
         <v>20.0</v>
@@ -12293,7 +12262,7 @@
         <v>64</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="W100" s="1" t="s">
         <v>58</v>
@@ -12332,13 +12301,13 @@
         <v>56</v>
       </c>
       <c r="AI100" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AJ100" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AL100" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AM100" s="1" t="s">
         <v>58</v>
@@ -12359,7 +12328,7 @@
         <v>58</v>
       </c>
       <c r="AS100" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AT100" s="1" t="s">
         <v>70</v>
@@ -12372,10 +12341,10 @@
         <v>72</v>
       </c>
       <c r="AX100" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AY100" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AZ100" s="1"/>
       <c r="BA100" s="1" t="s">
@@ -12387,7 +12356,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="17" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B101" s="2">
         <v>2022.0</v>
@@ -12396,7 +12365,7 @@
         <v>44987.0</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>54</v>
@@ -12417,7 +12386,7 @@
         <v>58</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>60</v>
@@ -12429,13 +12398,13 @@
         <v>135.0</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="P101" s="1">
         <v>4.0</v>
       </c>
       <c r="Q101" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R101" s="1">
         <v>5000.0</v>
@@ -12459,8 +12428,8 @@
       <c r="Y101" s="1">
         <v>1.0</v>
       </c>
-      <c r="Z101" s="1" t="s">
-        <v>215</v>
+      <c r="Z101" s="2" t="s">
+        <v>420</v>
       </c>
       <c r="AA101" s="1" t="s">
         <v>56</v>
@@ -12487,16 +12456,16 @@
         <v>56</v>
       </c>
       <c r="AI101" s="1" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="AJ101" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AK101" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="AL101" s="1" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="AM101" s="1" t="s">
         <v>58</v>
@@ -12531,11 +12500,11 @@
         <v>56</v>
       </c>
       <c r="AY101" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="AZ101" s="1"/>
       <c r="BA101" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB101" s="3">
         <v>45110.0</v>
@@ -12543,7 +12512,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="17" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B102" s="2">
         <v>2022.0</v>
@@ -12552,10 +12521,10 @@
         <v>4.0</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>55</v>
@@ -12573,9 +12542,11 @@
         <v>58</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="L102" s="1"/>
+        <v>426</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="M102" s="1" t="s">
         <v>58</v>
       </c>
@@ -12583,13 +12554,13 @@
         <v>72.0</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="P102" s="1">
         <v>5.0</v>
       </c>
       <c r="Q102" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R102" s="1">
         <v>5000.0</v>
@@ -12613,8 +12584,8 @@
       <c r="Y102" s="1">
         <v>6.0</v>
       </c>
-      <c r="Z102" s="1" t="s">
-        <v>66</v>
+      <c r="Z102" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="AA102" s="1" t="s">
         <v>58</v>
@@ -12645,7 +12616,7 @@
         <v>58</v>
       </c>
       <c r="AK102" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="AL102" s="1"/>
       <c r="AM102" s="1" t="s">
@@ -12661,19 +12632,19 @@
         <v>56</v>
       </c>
       <c r="AQ102" s="2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="AR102" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AS102" s="1" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="AT102" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AU102" s="1" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="AV102" s="1" t="s">
         <v>58</v>
@@ -12685,11 +12656,11 @@
         <v>56</v>
       </c>
       <c r="AY102" s="1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="AZ102" s="1"/>
       <c r="BA102" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="BB102" s="3">
         <v>45110.0</v>
@@ -17825,89 +17796,92 @@
     <mergeCell ref="AY96:AZ96"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ25">
-      <formula1>"R,MATLAB,Python,Stata,Excel,Mplus,unclear,Ox"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ97">
+      <formula1>"R,MATLAB,Python,Stata,Excel,Mplus,unclear,SPSS"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ102">
+      <formula1>"R,MATLAB,Python,Stata,Excel,Mplus,unclear,R, Mplus, OpenMX"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X2:X149">
+      <formula1>"known,estimated"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ2:AQ4 AQ6:AQ10 AQ12:AQ17 AQ19:AQ24 AQ26:AQ28 AQ30:AQ49 AQ51:AQ54 AQ56:AQ82 AQ84:AQ88 AQ90 AQ92:AQ93 AQ95 AQ99:AQ101 AQ103:AQ149">
+      <formula1>"R,MATLAB,Python,Stata,Excel,R,Mplus,unclear"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q2:Q149">
+      <formula1>"fully-factorial,partially-factorial,one-at-a-time"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ11">
+      <formula1>"R,MATLAB,Python,Stata,Excel,R,Mplus,unclear,R, Stata"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ50">
       <formula1>"R,MATLAB,Python,Stata,Excel,Mplus,unclear,SAS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L3 L5:L149">
-      <formula1>"resampled,parametric based on actual data,parametric thin-air"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Z5">
+      <formula1>"estimation,testing,model selection,prediction,design,other,estimation, model selection"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ91">
+      <formula1>"R,MATLAB,Python,Stata,Excel,Mplus,unclear,MATLAB, R"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Z2:Z4 Z6:Z149">
+      <formula1>"estimation,testing,model selection,prediction,design,other,estimation, model selection,design, estimation,estimation, testing,estimation, testing,estimation, classification,model selection, testing,estimation, testing"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ29">
+      <formula1>"R,MATLAB,Python,Stata,Excel,Mplus,unclear,R, Mplus"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ5">
+      <formula1>"R,MATLAB,Python,Stata,Excel,R,Mplus,unclear,R, Stan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ18 AQ98">
+      <formula1>"R,MATLAB,Python,Stata,Excel,R,Mplus,unclear,R, JAGS"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ94">
+      <formula1>"R,MATLAB,Python,Stata,Excel,Mplus,unclear,R, Stan"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AT2:AT149">
+      <formula1>"accessible online,not accessible"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ89">
+      <formula1>"R,MATLAB,Python,Stata,Excel,Mplus,unclear,SAS, Mplus"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G149">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BA2:BA149">
+      <formula1>"great,medium,poor"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E149">
+      <formula1>"BRM,PM,MBRM"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ25">
+      <formula1>"R,MATLAB,Python,Stata,Excel,Mplus,unclear,Ox"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ96">
       <formula1>"R,MATLAB,Python,Stata,Excel,Mplus,unclear,R, MATLAB"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ91">
-      <formula1>"R,MATLAB,Python,Stata,Excel,Mplus,unclear,MATLAB, R"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J3 M2:M3 J5:J149 M5:M149 S2:S149 U2:U149 W2:W149 AA2:AH149 AJ2:AJ149 AM2:AP149 AR2:AR149">
+      <formula1>"yes,no,unclear"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E149">
-      <formula1>"BRM,PM,MBRM"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L2:L3 L5:L149">
+      <formula1>"resampled,parametric based on actual data,parametric thin-air"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ94">
-      <formula1>"R,MATLAB,Python,Stata,Excel,Mplus,unclear,R, Stan"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AW2:AW149">
+      <formula1>"fully,partially,minimal,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="BA2:BA149">
-      <formula1>"great,medium,poor"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q2:Q149">
-      <formula1>"fully-factorial,partially-factorial,one-at-a-time"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ55">
+      <formula1>"R,MATLAB,Python,Stata,Excel,Mplus,unclear,JAGS"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F149">
       <formula1>"SP,FB,BS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ11">
-      <formula1>"R,MATLAB,Python,Stata,Excel,R,Mplus,unclear,R, Stata"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AT2:AT149">
-      <formula1>"accessible online,not accessible"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G149">
-      <formula1>"yes,no"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ83">
-      <formula1>"R,MATLAB,Python,Stata,Excel,Mplus,unclear,C++, Python"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Z2:Z149">
-      <formula1>"estimation,testing,model selection,prediction,design,other"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ55">
-      <formula1>"R,MATLAB,Python,Stata,Excel,Mplus,unclear,JAGS"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ2:AQ4 AQ6:AQ10 AQ12:AQ17 AQ19:AQ24 AQ26:AQ28 AQ30:AQ49 AQ51:AQ54 AQ56:AQ82 AQ84:AQ88 AQ90 AQ92:AQ93 AQ95 AQ99:AQ101 AQ103:AQ149">
-      <formula1>"R,MATLAB,Python,Stata,Excel,R,Mplus,unclear"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ18 AQ98">
-      <formula1>"R,MATLAB,Python,Stata,Excel,R,Mplus,unclear,R, JAGS"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ102">
-      <formula1>"R,MATLAB,Python,Stata,Excel,Mplus,unclear,R, Mplus, OpenMX"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AV2:AV149">
       <formula1>"yes,not found"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ89">
-      <formula1>"R,MATLAB,Python,Stata,Excel,Mplus,unclear,SAS, Mplus"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ5">
-      <formula1>"R,MATLAB,Python,Stata,Excel,R,Mplus,unclear,R, Stan"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J3 M2:M3 J5:J149 M5:M149 S2:S149 U2:U149 W2:W149 AA2:AH149 AJ2:AJ149 AM2:AP149 AR2:AR149">
-      <formula1>"yes,no,unclear"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AX2:AX149">
       <formula1>"fully,partially,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X2:X149">
-      <formula1>"known,estimated"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ97">
-      <formula1>"R,MATLAB,Python,Stata,Excel,Mplus,unclear,SPSS"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ29">
-      <formula1>"R,MATLAB,Python,Stata,Excel,Mplus,unclear,R, Mplus"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AW2:AW149">
-      <formula1>"fully,partially,minimal,no"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AQ83">
+      <formula1>"R,MATLAB,Python,Stata,Excel,Mplus,unclear,C++, Python"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/data/lit_review_data_bjoern.xlsx
+++ b/data/lit_review_data_bjoern.xlsx
@@ -441,7 +441,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="433">
   <si>
     <t>year</t>
   </si>
@@ -3374,7 +3374,9 @@
       <c r="AI10" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AJ10" s="1"/>
+      <c r="AJ10" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1" t="s">
         <v>67</v>
